--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98396151937409</v>
+        <v>18.98396151937407</v>
       </c>
       <c r="C2">
-        <v>17.5317918833506</v>
+        <v>17.53179188335065</v>
       </c>
       <c r="D2">
-        <v>4.11110855383948</v>
+        <v>4.111108553839435</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.11849396554992</v>
+        <v>39.11849396554982</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.21718114995182</v>
+        <v>25.2171811499517</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.05349991853648</v>
+        <v>30.05349991853644</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.68612202097754</v>
+        <v>17.6861220209775</v>
       </c>
       <c r="C3">
-        <v>16.29560954435563</v>
+        <v>16.29560954435562</v>
       </c>
       <c r="D3">
-        <v>4.097765569391104</v>
+        <v>4.097765569391207</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.08708200724254</v>
+        <v>24.08708200724253</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.69626918789485</v>
+        <v>27.69626918789487</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>16.84821834467285</v>
       </c>
       <c r="C4">
-        <v>15.49980977978456</v>
+        <v>15.49980977978444</v>
       </c>
       <c r="D4">
-        <v>4.092629491695129</v>
+        <v>4.092629491695285</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.39196200513231</v>
+        <v>35.39196200513238</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.39650977564438</v>
+        <v>23.39650977564447</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.2045220943554</v>
+        <v>26.20452209435535</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.49629816438939</v>
+        <v>16.49629816438942</v>
       </c>
       <c r="C5">
-        <v>15.16607254097229</v>
+        <v>15.16607254097224</v>
       </c>
       <c r="D5">
-        <v>4.091227190084812</v>
+        <v>4.091227190084606</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.11599091159118</v>
+        <v>23.11599091159115</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.43722567620684</v>
+        <v>16.43722567620681</v>
       </c>
       <c r="C6">
-        <v>15.11008006944512</v>
+        <v>15.11008006944505</v>
       </c>
       <c r="D6">
-        <v>4.091033927465139</v>
+        <v>4.091033927465183</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.70411305525683</v>
+        <v>34.70411305525684</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.06946805322361</v>
+        <v>23.06946805322362</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.8435148006799</v>
+        <v>16.84351480067989</v>
       </c>
       <c r="C7">
-        <v>15.49534735934238</v>
+        <v>15.49534735934223</v>
       </c>
       <c r="D7">
-        <v>4.092607880348858</v>
+        <v>4.092607880348949</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.38403361595174</v>
+        <v>35.38403361595163</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.39272284781496</v>
+        <v>23.39272284781487</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19620924645815</v>
+        <v>26.19620924645816</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.54488590392363</v>
+        <v>18.54488590392364</v>
       </c>
       <c r="C8">
         <v>17.11306739055085</v>
       </c>
       <c r="D8">
-        <v>4.105823978813918</v>
+        <v>4.105823978813685</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.33258408107032</v>
+        <v>38.33258408107033</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.82685048660251</v>
+        <v>24.82685048660246</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.24921485230363</v>
+        <v>29.24921485230372</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.56328973143295</v>
+        <v>21.56328973143303</v>
       </c>
       <c r="C9">
-        <v>20.0033420100072</v>
+        <v>20.00334201000723</v>
       </c>
       <c r="D9">
-        <v>4.160003579835391</v>
+        <v>4.160003579835507</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.92458007369668</v>
+        <v>43.92458007369677</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.66706771229158</v>
+        <v>27.66706771229163</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.94569898042418</v>
+        <v>34.94569898042426</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.59862138923691</v>
+        <v>23.5986213892369</v>
       </c>
       <c r="C10">
-        <v>21.97027454222294</v>
+        <v>21.97027454222312</v>
       </c>
       <c r="D10">
-        <v>4.223618742033398</v>
+        <v>4.223618742033359</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.93368492443864</v>
+        <v>47.93368492443872</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.78123703482704</v>
+        <v>29.78123703482707</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.06646303444455</v>
+        <v>39.06646303444454</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.48782354351479</v>
+        <v>24.48782354351466</v>
       </c>
       <c r="C11">
-        <v>22.83514822555926</v>
+        <v>22.83514822555932</v>
       </c>
       <c r="D11">
-        <v>4.259587180414617</v>
+        <v>4.259587180414568</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.82518266302605</v>
+        <v>49.82518266302588</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.75427775040359</v>
+        <v>30.75427775040354</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.96394786189354</v>
+        <v>40.96394786189343</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81952631862062</v>
+        <v>24.81952631862056</v>
       </c>
       <c r="C12">
-        <v>23.15875628400371</v>
+        <v>23.15875628400359</v>
       </c>
       <c r="D12">
         <v>4.274417847751804</v>
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.55077685617706</v>
+        <v>50.55077685617697</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.12509108775869</v>
+        <v>31.12509108775868</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.69027403509229</v>
+        <v>41.69027403509221</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.74830714113746</v>
+        <v>24.7483071411375</v>
       </c>
       <c r="C13">
-        <v>23.08922793642584</v>
+        <v>23.08922793642601</v>
       </c>
       <c r="D13">
-        <v>4.271166261810133</v>
+        <v>4.271166261810225</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.39458816275775</v>
+        <v>50.39458816275787</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.04511083481949</v>
+        <v>31.04511083481955</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.53341027796586</v>
+        <v>41.53341027796582</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.51521198537773</v>
+        <v>24.5152119853777</v>
       </c>
       <c r="C14">
-        <v>22.86184731810456</v>
+        <v>22.86184731810459</v>
       </c>
       <c r="D14">
-        <v>4.260781735756142</v>
+        <v>4.26078173575619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.88491676932033</v>
+        <v>49.88491676932021</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.78473261795386</v>
+        <v>30.78473261795374</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.02351527874027</v>
+        <v>41.02351527874018</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.37178878031193</v>
+        <v>24.37178878031203</v>
       </c>
       <c r="C15">
-        <v>22.72207505121611</v>
+        <v>22.72207505121628</v>
       </c>
       <c r="D15">
-        <v>4.254585265646458</v>
+        <v>4.254585265646452</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.57246172111557</v>
+        <v>49.57246172111593</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.62557510329584</v>
+        <v>30.625575103296</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.71236592954656</v>
+        <v>40.71236592954673</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.53979327496454</v>
+        <v>23.53979327496431</v>
       </c>
       <c r="C16">
-        <v>21.91318403436244</v>
+        <v>21.91318403436224</v>
       </c>
       <c r="D16">
-        <v>4.221425561133909</v>
+        <v>4.221425561133981</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.81516210142473</v>
+        <v>47.8151621014246</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.71792891487147</v>
+        <v>29.71792891487142</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.94326798010276</v>
+        <v>38.94326798010273</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.02017222574051</v>
+        <v>23.02017222574059</v>
       </c>
       <c r="C17">
-        <v>21.40956262153085</v>
+        <v>21.409562621531</v>
       </c>
       <c r="D17">
-        <v>4.203011441891238</v>
+        <v>4.203011441891245</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.77514394761931</v>
+        <v>46.77514394761928</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.16443656488166</v>
+        <v>29.16443656488162</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86658679956828</v>
+        <v>37.8665867995683</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.71783082778095</v>
+        <v>22.71783082778094</v>
       </c>
       <c r="C18">
-        <v>21.11705197247746</v>
+        <v>21.11705197247762</v>
       </c>
       <c r="D18">
-        <v>4.19306759093839</v>
+        <v>4.193067590938351</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.1756663472091</v>
+        <v>46.17566634720896</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.84708822953809</v>
+        <v>28.847088229538</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.24912562651956</v>
+        <v>37.24912562651948</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.61485991981578</v>
+        <v>22.61485991981576</v>
       </c>
       <c r="C19">
-        <v>21.01751385465964</v>
+        <v>21.01751385465971</v>
       </c>
       <c r="D19">
-        <v>4.189806632080502</v>
+        <v>4.189806632080447</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.97244366309402</v>
+        <v>45.97244366309385</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.73979482127269</v>
+        <v>28.73979482127256</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.04026345223681</v>
+        <v>37.04026345223674</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.07584402036393</v>
+        <v>23.07584402036392</v>
       </c>
       <c r="C20">
-        <v>21.46346532718268</v>
+        <v>21.46346532718269</v>
       </c>
       <c r="D20">
-        <v>4.204903349475483</v>
+        <v>4.204903349475536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.88598169758941</v>
+        <v>46.88598169758937</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.22324835472184</v>
+        <v>29.22324835472182</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.98098565685829</v>
+        <v>37.98098565685832</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.58381176364458</v>
+        <v>24.58381176364454</v>
       </c>
       <c r="C21">
-        <v>22.92873688397097</v>
+        <v>22.92873688397098</v>
       </c>
       <c r="D21">
-        <v>4.263797243450422</v>
+        <v>4.263797243450386</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03467212350511</v>
+        <v>50.03467212350508</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.86114116972997</v>
+        <v>30.8611411697299</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.54023255977809</v>
+        <v>25.54023255977796</v>
       </c>
       <c r="C22">
-        <v>23.86387540950132</v>
+        <v>23.86387540950121</v>
       </c>
       <c r="D22">
-        <v>4.309474278262723</v>
+        <v>4.309474278262649</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.14397982415492</v>
+        <v>52.14397982415442</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.9458352251817</v>
+        <v>31.9458352251814</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.30810348782067</v>
+        <v>43.30810348782052</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.03234876688737</v>
+        <v>25.03234876688726</v>
       </c>
       <c r="C23">
-        <v>23.36668358053289</v>
+        <v>23.36668358053297</v>
       </c>
       <c r="D23">
-        <v>4.284358151392988</v>
+        <v>4.284358151392982</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.01882888292057</v>
+        <v>51.01882888292035</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.36528876966261</v>
+        <v>31.36528876966246</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.16212881073103</v>
+        <v>42.16212881073089</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.05068604787987</v>
+        <v>23.05068604787979</v>
       </c>
       <c r="C24">
-        <v>21.43910520021857</v>
+        <v>21.43910520021862</v>
       </c>
       <c r="D24">
-        <v>4.204046030630524</v>
+        <v>4.204046030630464</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.83587688363541</v>
+        <v>46.83587688363531</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.19665691030888</v>
+        <v>29.19665691030883</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.92926145958187</v>
+        <v>37.92926145958189</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.77964500064711</v>
+        <v>20.77964500064713</v>
       </c>
       <c r="C25">
-        <v>19.25016874903539</v>
+        <v>19.25016874903559</v>
       </c>
       <c r="D25">
-        <v>4.141706235346013</v>
+        <v>4.141706235345969</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.43127390817261</v>
+        <v>42.43127390817267</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.89510434444093</v>
+        <v>26.89510434444094</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.42583024772151</v>
+        <v>33.42583024772162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98396151937407</v>
+        <v>18.98396151937409</v>
       </c>
       <c r="C2">
-        <v>17.53179188335065</v>
+        <v>17.5317918833506</v>
       </c>
       <c r="D2">
-        <v>4.111108553839435</v>
+        <v>4.11110855383948</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.11849396554982</v>
+        <v>39.11849396554992</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.2171811499517</v>
+        <v>25.21718114995182</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.05349991853644</v>
+        <v>30.05349991853648</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.6861220209775</v>
+        <v>17.68612202097754</v>
       </c>
       <c r="C3">
-        <v>16.29560954435562</v>
+        <v>16.29560954435563</v>
       </c>
       <c r="D3">
-        <v>4.097765569391207</v>
+        <v>4.097765569391104</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>24.08708200724253</v>
+        <v>24.08708200724254</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.69626918789487</v>
+        <v>27.69626918789485</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>16.84821834467285</v>
       </c>
       <c r="C4">
-        <v>15.49980977978444</v>
+        <v>15.49980977978456</v>
       </c>
       <c r="D4">
-        <v>4.092629491695285</v>
+        <v>4.092629491695129</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.39196200513238</v>
+        <v>35.39196200513231</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>23.39650977564447</v>
+        <v>23.39650977564438</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.20452209435535</v>
+        <v>26.2045220943554</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.49629816438942</v>
+        <v>16.49629816438939</v>
       </c>
       <c r="C5">
-        <v>15.16607254097224</v>
+        <v>15.16607254097229</v>
       </c>
       <c r="D5">
-        <v>4.091227190084606</v>
+        <v>4.091227190084812</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.11599091159115</v>
+        <v>23.11599091159118</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.43722567620681</v>
+        <v>16.43722567620684</v>
       </c>
       <c r="C6">
-        <v>15.11008006944505</v>
+        <v>15.11008006944512</v>
       </c>
       <c r="D6">
-        <v>4.091033927465183</v>
+        <v>4.091033927465139</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.70411305525684</v>
+        <v>34.70411305525683</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.06946805322362</v>
+        <v>23.06946805322361</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.84351480067989</v>
+        <v>16.8435148006799</v>
       </c>
       <c r="C7">
-        <v>15.49534735934223</v>
+        <v>15.49534735934238</v>
       </c>
       <c r="D7">
-        <v>4.092607880348949</v>
+        <v>4.092607880348858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.38403361595163</v>
+        <v>35.38403361595174</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23.39272284781487</v>
+        <v>23.39272284781496</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19620924645816</v>
+        <v>26.19620924645815</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.54488590392364</v>
+        <v>18.54488590392363</v>
       </c>
       <c r="C8">
         <v>17.11306739055085</v>
       </c>
       <c r="D8">
-        <v>4.105823978813685</v>
+        <v>4.105823978813918</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.33258408107033</v>
+        <v>38.33258408107032</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24.82685048660246</v>
+        <v>24.82685048660251</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.24921485230372</v>
+        <v>29.24921485230363</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.56328973143303</v>
+        <v>21.56328973143295</v>
       </c>
       <c r="C9">
-        <v>20.00334201000723</v>
+        <v>20.0033420100072</v>
       </c>
       <c r="D9">
-        <v>4.160003579835507</v>
+        <v>4.160003579835391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.92458007369677</v>
+        <v>43.92458007369668</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27.66706771229163</v>
+        <v>27.66706771229158</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.94569898042426</v>
+        <v>34.94569898042418</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.5986213892369</v>
+        <v>23.59862138923691</v>
       </c>
       <c r="C10">
-        <v>21.97027454222312</v>
+        <v>21.97027454222294</v>
       </c>
       <c r="D10">
-        <v>4.223618742033359</v>
+        <v>4.223618742033398</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.93368492443872</v>
+        <v>47.93368492443864</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29.78123703482707</v>
+        <v>29.78123703482704</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.06646303444454</v>
+        <v>39.06646303444455</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.48782354351466</v>
+        <v>24.48782354351479</v>
       </c>
       <c r="C11">
-        <v>22.83514822555932</v>
+        <v>22.83514822555926</v>
       </c>
       <c r="D11">
-        <v>4.259587180414568</v>
+        <v>4.259587180414617</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.82518266302588</v>
+        <v>49.82518266302605</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>30.75427775040354</v>
+        <v>30.75427775040359</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.96394786189343</v>
+        <v>40.96394786189354</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81952631862056</v>
+        <v>24.81952631862062</v>
       </c>
       <c r="C12">
-        <v>23.15875628400359</v>
+        <v>23.15875628400371</v>
       </c>
       <c r="D12">
         <v>4.274417847751804</v>
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.55077685617697</v>
+        <v>50.55077685617706</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.12509108775868</v>
+        <v>31.12509108775869</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.69027403509221</v>
+        <v>41.69027403509229</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.7483071411375</v>
+        <v>24.74830714113746</v>
       </c>
       <c r="C13">
-        <v>23.08922793642601</v>
+        <v>23.08922793642584</v>
       </c>
       <c r="D13">
-        <v>4.271166261810225</v>
+        <v>4.271166261810133</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.39458816275787</v>
+        <v>50.39458816275775</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.04511083481955</v>
+        <v>31.04511083481949</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.53341027796582</v>
+        <v>41.53341027796586</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.5152119853777</v>
+        <v>24.51521198537773</v>
       </c>
       <c r="C14">
-        <v>22.86184731810459</v>
+        <v>22.86184731810456</v>
       </c>
       <c r="D14">
-        <v>4.26078173575619</v>
+        <v>4.260781735756142</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.88491676932021</v>
+        <v>49.88491676932033</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>30.78473261795374</v>
+        <v>30.78473261795386</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.02351527874018</v>
+        <v>41.02351527874027</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.37178878031203</v>
+        <v>24.37178878031193</v>
       </c>
       <c r="C15">
-        <v>22.72207505121628</v>
+        <v>22.72207505121611</v>
       </c>
       <c r="D15">
-        <v>4.254585265646452</v>
+        <v>4.254585265646458</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.57246172111593</v>
+        <v>49.57246172111557</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30.625575103296</v>
+        <v>30.62557510329584</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.71236592954673</v>
+        <v>40.71236592954656</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.53979327496431</v>
+        <v>23.53979327496454</v>
       </c>
       <c r="C16">
-        <v>21.91318403436224</v>
+        <v>21.91318403436244</v>
       </c>
       <c r="D16">
-        <v>4.221425561133981</v>
+        <v>4.221425561133909</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.8151621014246</v>
+        <v>47.81516210142473</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29.71792891487142</v>
+        <v>29.71792891487147</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.94326798010273</v>
+        <v>38.94326798010276</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.02017222574059</v>
+        <v>23.02017222574051</v>
       </c>
       <c r="C17">
-        <v>21.409562621531</v>
+        <v>21.40956262153085</v>
       </c>
       <c r="D17">
-        <v>4.203011441891245</v>
+        <v>4.203011441891238</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.77514394761928</v>
+        <v>46.77514394761931</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.16443656488162</v>
+        <v>29.16443656488166</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.8665867995683</v>
+        <v>37.86658679956828</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.71783082778094</v>
+        <v>22.71783082778095</v>
       </c>
       <c r="C18">
-        <v>21.11705197247762</v>
+        <v>21.11705197247746</v>
       </c>
       <c r="D18">
-        <v>4.193067590938351</v>
+        <v>4.19306759093839</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17566634720896</v>
+        <v>46.1756663472091</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28.847088229538</v>
+        <v>28.84708822953809</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.24912562651948</v>
+        <v>37.24912562651956</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.61485991981576</v>
+        <v>22.61485991981578</v>
       </c>
       <c r="C19">
-        <v>21.01751385465971</v>
+        <v>21.01751385465964</v>
       </c>
       <c r="D19">
-        <v>4.189806632080447</v>
+        <v>4.189806632080502</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.97244366309385</v>
+        <v>45.97244366309402</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28.73979482127256</v>
+        <v>28.73979482127269</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.04026345223674</v>
+        <v>37.04026345223681</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.07584402036392</v>
+        <v>23.07584402036393</v>
       </c>
       <c r="C20">
-        <v>21.46346532718269</v>
+        <v>21.46346532718268</v>
       </c>
       <c r="D20">
-        <v>4.204903349475536</v>
+        <v>4.204903349475483</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.88598169758937</v>
+        <v>46.88598169758941</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.22324835472182</v>
+        <v>29.22324835472184</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.98098565685832</v>
+        <v>37.98098565685829</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.58381176364454</v>
+        <v>24.58381176364458</v>
       </c>
       <c r="C21">
-        <v>22.92873688397098</v>
+        <v>22.92873688397097</v>
       </c>
       <c r="D21">
-        <v>4.263797243450386</v>
+        <v>4.263797243450422</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03467212350508</v>
+        <v>50.03467212350511</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30.8611411697299</v>
+        <v>30.86114116972997</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.54023255977796</v>
+        <v>25.54023255977809</v>
       </c>
       <c r="C22">
-        <v>23.86387540950121</v>
+        <v>23.86387540950132</v>
       </c>
       <c r="D22">
-        <v>4.309474278262649</v>
+        <v>4.309474278262723</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.14397982415442</v>
+        <v>52.14397982415492</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31.9458352251814</v>
+        <v>31.9458352251817</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.30810348782052</v>
+        <v>43.30810348782067</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.03234876688726</v>
+        <v>25.03234876688737</v>
       </c>
       <c r="C23">
-        <v>23.36668358053297</v>
+        <v>23.36668358053289</v>
       </c>
       <c r="D23">
-        <v>4.284358151392982</v>
+        <v>4.284358151392988</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.01882888292035</v>
+        <v>51.01882888292057</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31.36528876966246</v>
+        <v>31.36528876966261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.16212881073089</v>
+        <v>42.16212881073103</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.05068604787979</v>
+        <v>23.05068604787987</v>
       </c>
       <c r="C24">
-        <v>21.43910520021862</v>
+        <v>21.43910520021857</v>
       </c>
       <c r="D24">
-        <v>4.204046030630464</v>
+        <v>4.204046030630524</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.83587688363531</v>
+        <v>46.83587688363541</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.19665691030883</v>
+        <v>29.19665691030888</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.92926145958189</v>
+        <v>37.92926145958187</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.77964500064713</v>
+        <v>20.77964500064711</v>
       </c>
       <c r="C25">
-        <v>19.25016874903559</v>
+        <v>19.25016874903539</v>
       </c>
       <c r="D25">
-        <v>4.141706235345969</v>
+        <v>4.141706235346013</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.43127390817267</v>
+        <v>42.43127390817261</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26.89510434444094</v>
+        <v>26.89510434444093</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.42583024772162</v>
+        <v>33.42583024772151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98396151937409</v>
+        <v>18.8464204565205</v>
       </c>
       <c r="C2">
-        <v>17.5317918833506</v>
+        <v>17.36911197633322</v>
       </c>
       <c r="D2">
-        <v>4.11110855383948</v>
+        <v>4.229922666544705</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.11849396554992</v>
+        <v>39.21400161498559</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.043515565802345</v>
       </c>
       <c r="H2">
-        <v>25.21718114995182</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.34977569950448</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.05349991853648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.01880311135682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.68612202097754</v>
+        <v>17.55065097806807</v>
       </c>
       <c r="C3">
-        <v>16.29560954435563</v>
+        <v>16.13632874196231</v>
       </c>
       <c r="D3">
-        <v>4.097765569391104</v>
+        <v>4.221830855860141</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.82450426760195</v>
+        <v>36.9566604458665</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.055571125213675</v>
       </c>
       <c r="H3">
-        <v>24.08708200724254</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.24349839359572</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.69626918789485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.66566045948312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.84821834467285</v>
+        <v>16.71389287253528</v>
       </c>
       <c r="C4">
-        <v>15.49980977978456</v>
+        <v>15.34253432107471</v>
       </c>
       <c r="D4">
-        <v>4.092629491695129</v>
+        <v>4.219821597163874</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.39196200513231</v>
+        <v>35.5488711593334</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.063085870294206</v>
       </c>
       <c r="H4">
-        <v>23.39650977564438</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.56853099356811</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.2045220943554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.17629619392736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.49629816438939</v>
+        <v>16.36240510932017</v>
       </c>
       <c r="C5">
-        <v>15.16607254097229</v>
+        <v>15.00959206546419</v>
       </c>
       <c r="D5">
-        <v>4.091227190084812</v>
+        <v>4.219672499646592</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.80235889414708</v>
+        <v>34.96993775775539</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.066181088807198</v>
       </c>
       <c r="H5">
-        <v>23.11599091159118</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.29461084088712</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.58434655969871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.55706970617409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.43722567620684</v>
+        <v>16.30340223852284</v>
       </c>
       <c r="C6">
-        <v>15.11008006944512</v>
+        <v>14.95373018733683</v>
       </c>
       <c r="D6">
-        <v>4.091033927465139</v>
+        <v>4.21968616157549</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.70411305525683</v>
+        <v>34.87349921197694</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.066697158705617</v>
       </c>
       <c r="H6">
-        <v>23.06946805322361</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.24919790087846</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.48059603006824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.45347568882049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.8435148006799</v>
+        <v>16.70919530424823</v>
       </c>
       <c r="C7">
-        <v>15.49534735934238</v>
+        <v>15.33808271503688</v>
       </c>
       <c r="D7">
-        <v>4.092607880348858</v>
+        <v>4.219816967485736</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.38403361595174</v>
+        <v>35.54108428738211</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.063127474604125</v>
       </c>
       <c r="H7">
-        <v>23.39272284781496</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.56483209944324</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19620924645815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.16799622257264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.54488590392363</v>
+        <v>18.40808323465002</v>
       </c>
       <c r="C8">
-        <v>17.11306739055085</v>
+        <v>16.95157581101057</v>
       </c>
       <c r="D8">
-        <v>4.105823978813918</v>
+        <v>4.226471074596269</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.33258408107032</v>
+        <v>38.44027231586</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.047651896633584</v>
       </c>
       <c r="H8">
-        <v>24.82685048660251</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.96745325916589</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.24921485230363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.2159608574733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.56328973143295</v>
+        <v>21.42069478099195</v>
       </c>
       <c r="C9">
-        <v>20.0033420100072</v>
+        <v>19.83292785564199</v>
       </c>
       <c r="D9">
-        <v>4.160003579835391</v>
+        <v>4.266841585706576</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.92458007369668</v>
+        <v>43.95239050298601</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.01795585105511</v>
       </c>
       <c r="H9">
-        <v>27.66706771229158</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>27.75371007051114</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.94569898042418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.90092527477956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.59862138923691</v>
+        <v>23.45123974393729</v>
       </c>
       <c r="C10">
-        <v>21.97027454222294</v>
+        <v>21.79285698725046</v>
       </c>
       <c r="D10">
-        <v>4.223618742033398</v>
+        <v>4.319478098944772</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.93368492443864</v>
+        <v>47.91160142505289</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.996126895149604</v>
       </c>
       <c r="H10">
-        <v>29.78123703482704</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>29.83276584817649</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.06646303444455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>39.01091206178038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.48782354351479</v>
+        <v>24.33813951152741</v>
       </c>
       <c r="C11">
-        <v>22.83514822555926</v>
+        <v>22.65440968933403</v>
       </c>
       <c r="D11">
-        <v>4.259587180414617</v>
+        <v>4.350200687455104</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.82518266302605</v>
+        <v>49.72386390897669</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.986074198875913</v>
       </c>
       <c r="H11">
-        <v>30.75427775040359</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30.79066265779372</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.96394786189354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.90247085486327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.81952631862062</v>
+        <v>24.66895089751833</v>
       </c>
       <c r="C12">
-        <v>23.15875628400371</v>
+        <v>22.97673574886171</v>
       </c>
       <c r="D12">
-        <v>4.274417847751804</v>
+        <v>4.363000979646444</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.55077685617706</v>
+        <v>50.4424454648674</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.98223665312586</v>
       </c>
       <c r="H12">
-        <v>31.12509108775869</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.15583900318562</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.69027403509229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.62633111546013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.74830714113746</v>
+        <v>24.59792459356045</v>
       </c>
       <c r="C13">
-        <v>23.08922793642584</v>
+        <v>22.90748468665257</v>
       </c>
       <c r="D13">
-        <v>4.271166261810133</v>
+        <v>4.360188772329311</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.39458816275775</v>
+        <v>50.2877617439427</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.983064757004313</v>
       </c>
       <c r="H13">
-        <v>31.04511083481949</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.07706887838678</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.53341027796586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.47000993894358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.51521198537773</v>
+        <v>24.36545501982389</v>
       </c>
       <c r="C14">
-        <v>22.86184731810456</v>
+        <v>22.68100383511471</v>
       </c>
       <c r="D14">
-        <v>4.260781735756142</v>
+        <v>4.351229134901232</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.88491676932033</v>
+        <v>49.78301860273989</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.985759187616376</v>
       </c>
       <c r="H14">
-        <v>30.78473261795386</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>30.82065196593775</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.02351527874027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.96184041845761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.37178878031193</v>
+        <v>24.22241240618493</v>
       </c>
       <c r="C15">
-        <v>22.72207505121611</v>
+        <v>22.54177934444183</v>
       </c>
       <c r="D15">
-        <v>4.254585265646458</v>
+        <v>4.345899466039701</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.57246172111557</v>
+        <v>49.47359876446015</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.987405139639244</v>
       </c>
       <c r="H15">
-        <v>30.62557510329584</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>30.66393278785177</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.71236592954656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.65171619130991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.53979327496454</v>
+        <v>23.39255945860776</v>
       </c>
       <c r="C16">
-        <v>21.91318403436244</v>
+        <v>21.73598040627038</v>
       </c>
       <c r="D16">
-        <v>4.221425561133909</v>
+        <v>4.317622074957078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.81516210142473</v>
+        <v>47.79449077566269</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.996780346569414</v>
       </c>
       <c r="H16">
-        <v>29.71792891487147</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>29.77046245985129</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.94326798010276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.88807814086596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.02017222574051</v>
+        <v>22.87421984043112</v>
       </c>
       <c r="C17">
-        <v>21.40956262153085</v>
+        <v>21.23421824519996</v>
       </c>
       <c r="D17">
-        <v>4.203011441891238</v>
+        <v>4.302133822856141</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.77514394761931</v>
+        <v>46.76701124922366</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.002491985786689</v>
       </c>
       <c r="H17">
-        <v>29.16443656488166</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.22586623603468</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.86658679956828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.8144419655086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.71783082778095</v>
+        <v>22.57260386249763</v>
       </c>
       <c r="C18">
-        <v>21.11705197247746</v>
+        <v>20.9427646618567</v>
       </c>
       <c r="D18">
-        <v>4.19306759093839</v>
+        <v>4.293849727008295</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.1756663472091</v>
+        <v>46.17488938386845</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.005766584672335</v>
       </c>
       <c r="H18">
-        <v>28.84708822953809</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>28.91371450499752</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.24912562651956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.19864188777643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.61485991981578</v>
+        <v>22.46987661298748</v>
       </c>
       <c r="C19">
-        <v>21.01751385465964</v>
+        <v>20.84358245654564</v>
       </c>
       <c r="D19">
-        <v>4.189806632080502</v>
+        <v>4.291146961516412</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.97244366309402</v>
+        <v>45.97418308876054</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.006873837469123</v>
       </c>
       <c r="H19">
-        <v>28.73979482127269</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>28.80819480281469</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.04026345223681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.99032833306295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.07584402036393</v>
+        <v>22.92975643769376</v>
       </c>
       <c r="C20">
-        <v>21.46346532718268</v>
+        <v>21.28792433693965</v>
       </c>
       <c r="D20">
-        <v>4.204903349475483</v>
+        <v>4.303716709222276</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.88598169758941</v>
+        <v>46.87649963346922</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.001885152165003</v>
       </c>
       <c r="H20">
-        <v>29.22324835472184</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>29.2837228892494</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.98098565685829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.92852644898645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.58381176364458</v>
+        <v>24.43387159364509</v>
       </c>
       <c r="C21">
-        <v>22.92873688397097</v>
+        <v>22.74762982864356</v>
       </c>
       <c r="D21">
-        <v>4.263797243450422</v>
+        <v>4.353827382736554</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.03467212350511</v>
+        <v>49.93132306433689</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.984968727327506</v>
       </c>
       <c r="H21">
-        <v>30.86114116972997</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>30.89589455406955</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.17302818648368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.11085332938001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.54023255977809</v>
+        <v>25.38765981289533</v>
       </c>
       <c r="C22">
-        <v>23.86387540950132</v>
+        <v>23.67898465685155</v>
       </c>
       <c r="D22">
-        <v>4.309474278262723</v>
+        <v>4.393502639738838</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.14397982415492</v>
+        <v>52.02041676554121</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.973724220239892</v>
       </c>
       <c r="H22">
-        <v>31.9458352251817</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>31.96433004930462</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.30810348782067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.23821592944958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.03234876688737</v>
+        <v>24.88119215475097</v>
       </c>
       <c r="C23">
-        <v>23.36668358053289</v>
+        <v>23.18382773299227</v>
       </c>
       <c r="D23">
-        <v>4.284358151392988</v>
+        <v>4.371616952625787</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.01882888292057</v>
+        <v>50.90600123732521</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.979748275748808</v>
       </c>
       <c r="H23">
-        <v>31.36528876966261</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.39242040960442</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.16212881073103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.09651914730286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.05068604787987</v>
+        <v>22.90465962299167</v>
       </c>
       <c r="C24">
-        <v>21.43910520021857</v>
+        <v>21.26365313565966</v>
       </c>
       <c r="D24">
-        <v>4.204046030630524</v>
+        <v>4.302999167986806</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.83587688363541</v>
+        <v>46.82700440645394</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.002159529042551</v>
       </c>
       <c r="H24">
-        <v>29.19665691030888</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.25756300487642</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.92926145958187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.87694465393611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.77964500064711</v>
+        <v>20.63870941479619</v>
       </c>
       <c r="C25">
-        <v>19.25016874903539</v>
+        <v>19.08223845416191</v>
       </c>
       <c r="D25">
-        <v>4.141706235346013</v>
+        <v>4.252405640980699</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.43127390817261</v>
+        <v>42.47902612566774</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.025957263961453</v>
       </c>
       <c r="H25">
-        <v>26.89510434444093</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>26.99551466112111</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.42583024772151</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.38445435816239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,851 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.8464204565205</v>
+        <v>20.61622608750854</v>
       </c>
       <c r="C2">
-        <v>17.36911197633322</v>
+        <v>14.12282854039032</v>
       </c>
       <c r="D2">
-        <v>4.229922666544705</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>4.002273536887282</v>
       </c>
       <c r="F2">
-        <v>39.21400161498559</v>
+        <v>21.51820485232692</v>
       </c>
       <c r="G2">
-        <v>2.043515565802345</v>
+        <v>2.072432634307587</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.34977569950448</v>
-      </c>
-      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>30.01880311135682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.09347886061634</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>16.34003328061048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55065097806807</v>
+        <v>19.20120177596155</v>
       </c>
       <c r="C3">
-        <v>16.13632874196231</v>
+        <v>13.21616903116875</v>
       </c>
       <c r="D3">
-        <v>4.221830855860141</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.007257722828089</v>
       </c>
       <c r="F3">
-        <v>36.9566604458665</v>
+        <v>20.91742156939741</v>
       </c>
       <c r="G3">
-        <v>2.055571125213675</v>
+        <v>2.080861986629333</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.24349839359572</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>27.66566045948312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.90256906066785</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>16.15290216986071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.71389287253528</v>
+        <v>18.28413499484043</v>
       </c>
       <c r="C4">
-        <v>15.34253432107471</v>
+        <v>12.62986363512107</v>
       </c>
       <c r="D4">
-        <v>4.219821597163874</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.011637071899308</v>
       </c>
       <c r="F4">
-        <v>35.5488711593334</v>
+        <v>20.58142405313084</v>
       </c>
       <c r="G4">
-        <v>2.063085870294206</v>
+        <v>2.086162392400609</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.56853099356811</v>
-      </c>
-      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>26.17629619392736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.13182325620394</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>16.06973444134236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.36240510932017</v>
+        <v>17.89816852999335</v>
       </c>
       <c r="C5">
-        <v>15.00959206546419</v>
+        <v>12.3834619475552</v>
       </c>
       <c r="D5">
-        <v>4.219672499646592</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.013739805896849</v>
       </c>
       <c r="F5">
-        <v>34.96993775775539</v>
+        <v>20.45267191893492</v>
       </c>
       <c r="G5">
-        <v>2.066181088807198</v>
+        <v>2.088355356898857</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.29461084088712</v>
-      </c>
-      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>25.55706970617409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.80773049236914</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>16.04343102610598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.30340223852284</v>
+        <v>17.83333540597007</v>
       </c>
       <c r="C6">
-        <v>14.95373018733683</v>
+        <v>12.34209488159464</v>
       </c>
       <c r="D6">
-        <v>4.21968616157549</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.014107808694614</v>
       </c>
       <c r="F6">
-        <v>34.87349921197694</v>
+        <v>20.43178238328511</v>
       </c>
       <c r="G6">
-        <v>2.066697158705617</v>
+        <v>2.088721536282718</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.24919790087846</v>
-      </c>
-      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>25.45347568882049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.75330891823685</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>16.03950970613102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.70919530424823</v>
+        <v>18.27897949524366</v>
       </c>
       <c r="C7">
-        <v>15.33808271503688</v>
+        <v>12.62657088284905</v>
       </c>
       <c r="D7">
-        <v>4.219816967485736</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.011664158896256</v>
       </c>
       <c r="F7">
-        <v>35.54108428738211</v>
+        <v>20.57965474178715</v>
       </c>
       <c r="G7">
-        <v>2.063127474604125</v>
+        <v>2.086191831759699</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.56483209944324</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>26.16799622257264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.12749303110734</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>16.06934951718861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.40808323465002</v>
+        <v>20.13826017686273</v>
       </c>
       <c r="C8">
-        <v>16.95157581101057</v>
+        <v>13.81633540965863</v>
       </c>
       <c r="D8">
-        <v>4.226471074596269</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.003709661204695</v>
       </c>
       <c r="F8">
-        <v>38.44027231586</v>
+        <v>21.30418167378344</v>
       </c>
       <c r="G8">
-        <v>2.047651896633584</v>
+        <v>2.075314204447044</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.96745325916589</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>29.2159608574733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.69101037286246</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>16.26869847592199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.42069478099195</v>
+        <v>23.40750434996726</v>
       </c>
       <c r="C9">
-        <v>19.83292785564199</v>
+        <v>15.9166165829309</v>
       </c>
       <c r="D9">
-        <v>4.266841585706576</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.99927610129167</v>
       </c>
       <c r="F9">
-        <v>43.95239050298601</v>
+        <v>22.98860324379069</v>
       </c>
       <c r="G9">
-        <v>2.01795585105511</v>
+        <v>2.054892727421871</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.75371007051114</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>34.90092527477956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.44724600870263</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.92721744512133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.45123974393729</v>
+        <v>25.58845013697819</v>
       </c>
       <c r="C10">
-        <v>21.79285698725046</v>
+        <v>17.32160763550882</v>
       </c>
       <c r="D10">
-        <v>4.319478098944772</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>4.003944014806325</v>
       </c>
       <c r="F10">
-        <v>47.91160142505289</v>
+        <v>24.38915614023515</v>
       </c>
       <c r="G10">
-        <v>1.996126895149604</v>
+        <v>2.04032086026559</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.83276584817649</v>
-      </c>
-      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>39.01091206178038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.28948602679777</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>17.59330210301605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33813951152741</v>
+        <v>26.53471324137519</v>
       </c>
       <c r="C11">
-        <v>22.65440968933403</v>
+        <v>17.93187046156854</v>
       </c>
       <c r="D11">
-        <v>4.350200687455104</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>4.008083022252262</v>
       </c>
       <c r="F11">
-        <v>49.72386390897669</v>
+        <v>25.06209395648882</v>
       </c>
       <c r="G11">
-        <v>1.986074198875913</v>
+        <v>2.033754949412526</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.79066265779372</v>
-      </c>
-      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>40.90247085486327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.08945191488042</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>17.93933017412595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.66895089751833</v>
+        <v>26.8866291155411</v>
       </c>
       <c r="C12">
-        <v>22.97673574886171</v>
+        <v>18.15891297395692</v>
       </c>
       <c r="D12">
-        <v>4.363000979646444</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>4.00996884907646</v>
       </c>
       <c r="F12">
-        <v>50.4424454648674</v>
+        <v>25.32211775111861</v>
       </c>
       <c r="G12">
-        <v>1.98223665312586</v>
+        <v>2.031274811944686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.15583900318562</v>
-      </c>
-      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>41.62633111546013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.38704808963102</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>18.07679418667028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59792459356045</v>
+        <v>26.8111199291383</v>
       </c>
       <c r="C13">
-        <v>22.90748468665257</v>
+        <v>18.11019371073995</v>
       </c>
       <c r="D13">
-        <v>4.360188772329311</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>4.009548041387871</v>
       </c>
       <c r="F13">
-        <v>50.2877617439427</v>
+        <v>25.26588476828102</v>
       </c>
       <c r="G13">
-        <v>1.983064757004313</v>
+        <v>2.031808724946091</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.07706887838678</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>41.47000993894358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.32319021534451</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>18.0468991305363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.36545501982389</v>
+        <v>26.56379301594261</v>
       </c>
       <c r="C14">
-        <v>22.68100383511471</v>
+        <v>17.95062994177233</v>
       </c>
       <c r="D14">
-        <v>4.351229134901232</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>4.008231610047252</v>
       </c>
       <c r="F14">
-        <v>49.78301860273989</v>
+        <v>25.08338174213337</v>
       </c>
       <c r="G14">
-        <v>1.985759187616376</v>
+        <v>2.033550799360469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.82065196593775</v>
-      </c>
-      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>40.96184041845761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.11404135594417</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>17.95050920133777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.22241240618493</v>
+        <v>26.41146855263111</v>
       </c>
       <c r="C15">
-        <v>22.54177934444183</v>
+        <v>17.85236822805575</v>
       </c>
       <c r="D15">
-        <v>4.345899466039701</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>4.007467647286218</v>
       </c>
       <c r="F15">
-        <v>49.47359876446015</v>
+        <v>24.97227204633566</v>
       </c>
       <c r="G15">
-        <v>1.987405139639244</v>
+        <v>2.034618592873835</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.66393278785177</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>40.65171619130991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.98524152869083</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>17.89231200623569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.39255945860776</v>
+        <v>25.5257019552811</v>
       </c>
       <c r="C16">
-        <v>21.73598040627038</v>
+        <v>17.28115286130181</v>
       </c>
       <c r="D16">
-        <v>4.317622074957078</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>4.003716442619537</v>
       </c>
       <c r="F16">
-        <v>47.79449077566269</v>
+        <v>24.34590212509205</v>
       </c>
       <c r="G16">
-        <v>1.996780346569414</v>
+        <v>2.040750989945515</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.77046245985129</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>38.88807814086596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>22.23645194800776</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>17.57157536364909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.87421984043112</v>
+        <v>24.97069140650942</v>
       </c>
       <c r="C17">
-        <v>21.23421824519996</v>
+        <v>16.92340328694196</v>
       </c>
       <c r="D17">
-        <v>4.302133822856141</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>4.00195065349212</v>
       </c>
       <c r="F17">
-        <v>46.76701124922366</v>
+        <v>23.9708427658561</v>
       </c>
       <c r="G17">
-        <v>2.002491985786689</v>
+        <v>2.044527218099047</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.22586623603468</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>37.8144419655086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.76743746992387</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>17.38601277321994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.57260386249763</v>
+        <v>24.64713579676141</v>
       </c>
       <c r="C18">
-        <v>20.9427646618567</v>
+        <v>16.71491053051925</v>
       </c>
       <c r="D18">
-        <v>4.293849727008295</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>4.001122805778452</v>
       </c>
       <c r="F18">
-        <v>46.17488938386845</v>
+        <v>23.75848599693418</v>
       </c>
       <c r="G18">
-        <v>2.005766584672335</v>
+        <v>2.046705310837179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.91371450499752</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>37.19864188777643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.4940792634019</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>17.28331850707639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.46987661298748</v>
+        <v>24.53683676303022</v>
       </c>
       <c r="C19">
-        <v>20.84358245654564</v>
+        <v>16.64384762455252</v>
       </c>
       <c r="D19">
-        <v>4.291146961516412</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>4.000873950785726</v>
       </c>
       <c r="F19">
-        <v>45.97418308876054</v>
+        <v>23.68716306192076</v>
       </c>
       <c r="G19">
-        <v>2.006873837469123</v>
+        <v>2.047443905313216</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.80819480281469</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>36.99032833306295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.40090359862712</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>17.24923350630599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.92975643769376</v>
+        <v>25.03021991486676</v>
       </c>
       <c r="C20">
-        <v>21.28792433693965</v>
+        <v>16.96176763913437</v>
       </c>
       <c r="D20">
-        <v>4.303716709222276</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>4.002118993840723</v>
       </c>
       <c r="F20">
-        <v>46.87649963346922</v>
+        <v>24.01041971640386</v>
       </c>
       <c r="G20">
-        <v>2.001885152165003</v>
+        <v>2.044124619638446</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.2837228892494</v>
-      </c>
-      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>37.92852644898645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.81773579161747</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>17.40534664774217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.43387159364509</v>
+        <v>26.6366114662533</v>
       </c>
       <c r="C21">
-        <v>22.74762982864356</v>
+        <v>17.99760675221366</v>
       </c>
       <c r="D21">
-        <v>4.353827382736554</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>4.008609387374466</v>
       </c>
       <c r="F21">
-        <v>49.93132306433689</v>
+        <v>25.13684574061116</v>
       </c>
       <c r="G21">
-        <v>1.984968727327506</v>
+        <v>2.033038964743417</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.89589455406955</v>
-      </c>
-      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>41.11085332938001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23.1756169894191</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>17.97864486989448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.38765981289533</v>
+        <v>27.64919405069038</v>
       </c>
       <c r="C22">
-        <v>23.67898465685155</v>
+        <v>18.65103311832371</v>
       </c>
       <c r="D22">
-        <v>4.393502639738838</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>4.014723667923339</v>
       </c>
       <c r="F22">
-        <v>52.02041676554121</v>
+        <v>25.90336823764148</v>
       </c>
       <c r="G22">
-        <v>1.973724220239892</v>
+        <v>2.025828628846513</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.96433004930462</v>
-      </c>
-      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>43.23821592944958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>24.03205989910272</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.39091518154205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88119215475097</v>
+        <v>27.11210759184596</v>
       </c>
       <c r="C23">
-        <v>23.18382773299227</v>
+        <v>18.30440542714911</v>
       </c>
       <c r="D23">
-        <v>4.371616952625787</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>4.011278553982986</v>
       </c>
       <c r="F23">
-        <v>50.90600123732521</v>
+        <v>25.49146077195564</v>
       </c>
       <c r="G23">
-        <v>1.979748275748808</v>
+        <v>2.029674750747026</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.39242040960442</v>
-      </c>
-      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>42.09651914730286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>23.57774675549793</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>18.16736269634264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.90465962299167</v>
+        <v>25.0033210210622</v>
       </c>
       <c r="C24">
-        <v>21.26365313565966</v>
+        <v>16.94443189970206</v>
       </c>
       <c r="D24">
-        <v>4.302999167986806</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>4.002042305803931</v>
       </c>
       <c r="F24">
-        <v>46.82700440645394</v>
+        <v>23.99251679516737</v>
       </c>
       <c r="G24">
-        <v>2.002159529042551</v>
+        <v>2.044306612113149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.25756300487642</v>
-      </c>
-      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>37.87694465393611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.79500750399563</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>17.39659339951956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.63870941479619</v>
+        <v>22.56255608329445</v>
       </c>
       <c r="C25">
-        <v>19.08223845416191</v>
+        <v>15.37300892558859</v>
       </c>
       <c r="D25">
-        <v>4.252405640980699</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.999173609537429</v>
       </c>
       <c r="F25">
-        <v>42.47902612566774</v>
+        <v>22.50440771064633</v>
       </c>
       <c r="G25">
-        <v>2.025957263961453</v>
+        <v>2.060331894935377</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.99551466112111</v>
-      </c>
-      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>33.38445435816239</v>
+        <v>19.73419415353584</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>16.71831815024707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -421,34 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61622608750854</v>
+        <v>18.57465343029405</v>
       </c>
       <c r="C2">
-        <v>14.12282854039032</v>
+        <v>13.00478087588867</v>
       </c>
       <c r="D2">
-        <v>4.002273536887282</v>
+        <v>4.592055355000841</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>21.51820485232692</v>
+        <v>13.6988582401112</v>
       </c>
       <c r="G2">
-        <v>2.072432634307587</v>
+        <v>15.55321446249318</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.550596543966239</v>
       </c>
       <c r="I2">
+        <v>8.692268503182738</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.09347886061634</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.94742188209073</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.34003328061048</v>
+        <v>10.09208443683766</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20120177596155</v>
+        <v>17.50408716453315</v>
       </c>
       <c r="C3">
-        <v>13.21616903116875</v>
+        <v>12.39453900718737</v>
       </c>
       <c r="D3">
-        <v>4.007257722828089</v>
+        <v>4.358403009515717</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>20.91742156939741</v>
+        <v>13.25988445023974</v>
       </c>
       <c r="G3">
-        <v>2.080861986629333</v>
+        <v>14.89447014273975</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.598511466133529</v>
       </c>
       <c r="I3">
+        <v>8.997363521668138</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.90256906066785</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.65493547086518</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.15290216986071</v>
+        <v>10.01995986348197</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.28413499484043</v>
+        <v>16.80982531316859</v>
       </c>
       <c r="C4">
-        <v>12.62986363512107</v>
+        <v>12.00247542026736</v>
       </c>
       <c r="D4">
-        <v>4.011637071899308</v>
+        <v>4.207668114835374</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20.58142405313084</v>
+        <v>13.00207028555966</v>
       </c>
       <c r="G4">
-        <v>2.086162392400609</v>
+        <v>14.50757156792326</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.634145614219876</v>
       </c>
       <c r="I4">
+        <v>9.195055729959451</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.13182325620394</v>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.19653985641403</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.06973444134236</v>
+        <v>9.990409903377831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89816852999335</v>
+        <v>16.51774679478331</v>
       </c>
       <c r="C5">
-        <v>12.3834619475552</v>
+        <v>11.8385112115706</v>
       </c>
       <c r="D5">
-        <v>4.013739805896849</v>
+        <v>4.144454656695299</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>20.45267191893492</v>
+        <v>12.90005944027405</v>
       </c>
       <c r="G5">
-        <v>2.088355356898857</v>
+        <v>14.35453082831634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.650156029181395</v>
       </c>
       <c r="I5">
+        <v>9.278082688239165</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.80773049236914</v>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.58864030222752</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.04343102610598</v>
+        <v>9.981916044740375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83333540597007</v>
+        <v>16.4686982476708</v>
       </c>
       <c r="C6">
-        <v>12.34209488159464</v>
+        <v>11.81103722216929</v>
       </c>
       <c r="D6">
-        <v>4.014107808694614</v>
+        <v>4.133851462450985</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>20.43178238328511</v>
+        <v>12.88330777768575</v>
       </c>
       <c r="G6">
-        <v>2.088721536282718</v>
+        <v>14.32940367504706</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.652902406193492</v>
       </c>
       <c r="I6">
+        <v>9.292014549438694</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.75330891823685</v>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.48685620686552</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.03950970613102</v>
+        <v>9.980715187274933</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.27897949524366</v>
+        <v>16.80592314901225</v>
       </c>
       <c r="C7">
-        <v>12.62657088284905</v>
+        <v>12.00028088179665</v>
       </c>
       <c r="D7">
-        <v>4.011664158896256</v>
+        <v>4.206822775730795</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>20.57965474178715</v>
+        <v>13.00068204696619</v>
       </c>
       <c r="G7">
-        <v>2.086191831759699</v>
+        <v>14.50548861829622</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.634355601159567</v>
       </c>
       <c r="I7">
+        <v>9.196165643761729</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.12749303110734</v>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.18839754732303</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.06934951718861</v>
+        <v>9.990281200045963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13826017686273</v>
+        <v>18.21325447487377</v>
       </c>
       <c r="C8">
-        <v>13.81633540965863</v>
+        <v>12.79807258596013</v>
       </c>
       <c r="D8">
-        <v>4.003709661204695</v>
+        <v>4.513023555510321</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>21.30418167378344</v>
+        <v>13.54513167555024</v>
       </c>
       <c r="G8">
-        <v>2.075314204447044</v>
+        <v>15.32255446393205</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.565782705787604</v>
       </c>
       <c r="I8">
+        <v>8.795222088995915</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.69101037286246</v>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.16698865333036</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.26869847592199</v>
+        <v>10.06406567699076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.40750434996726</v>
+        <v>20.67560375564083</v>
       </c>
       <c r="C9">
-        <v>15.9166165829309</v>
+        <v>14.21804047364246</v>
       </c>
       <c r="D9">
-        <v>3.99927610129167</v>
+        <v>5.054308291823741</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22.98860324379069</v>
+        <v>14.70121524235275</v>
       </c>
       <c r="G9">
-        <v>2.054892727421871</v>
+        <v>17.05577357929759</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.484072870934873</v>
       </c>
       <c r="I9">
+        <v>8.099067212406556</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.44724600870263</v>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.64879181996312</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.92721744512133</v>
+        <v>10.33225034314135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.58845013697819</v>
+        <v>22.29843034819497</v>
       </c>
       <c r="C10">
-        <v>17.32160763550882</v>
+        <v>15.16516301512848</v>
       </c>
       <c r="D10">
-        <v>4.003944014806325</v>
+        <v>5.414245880868226</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>24.38915614023515</v>
+        <v>15.5991093555156</v>
       </c>
       <c r="G10">
-        <v>2.04032086026559</v>
+        <v>18.39980069546699</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.461204238178403</v>
       </c>
       <c r="I10">
+        <v>7.6565165335782</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.28948602679777</v>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.53332359170246</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.59330210301605</v>
+        <v>10.61297693183552</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.53471324137519</v>
+        <v>22.99530336732936</v>
       </c>
       <c r="C11">
-        <v>17.93187046156854</v>
+        <v>15.57356404894608</v>
       </c>
       <c r="D11">
-        <v>4.008083022252262</v>
+        <v>5.569493436819653</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>25.06209395648882</v>
+        <v>16.01736809535659</v>
       </c>
       <c r="G11">
-        <v>2.033754949412526</v>
+        <v>19.04011322206122</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.4600280951342</v>
       </c>
       <c r="I11">
+        <v>7.47437856015125</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.08945191488042</v>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.2925418262502</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.93933017412595</v>
+        <v>10.76054031734147</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.8866291155411</v>
+        <v>23.2531546243909</v>
       </c>
       <c r="C12">
-        <v>18.15891297395692</v>
+        <v>15.72484611114464</v>
       </c>
       <c r="D12">
-        <v>4.00996884907646</v>
+        <v>5.627035650184696</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>25.32211775111861</v>
+        <v>16.17714001885097</v>
       </c>
       <c r="G12">
-        <v>2.031274811944686</v>
+        <v>19.30556329958133</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.461011384944144</v>
       </c>
       <c r="I12">
+        <v>7.408625614581625</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.38704808963102</v>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>40.96020127499177</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.07679418667028</v>
+        <v>10.81941192068603</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.8111199291383</v>
+        <v>23.19789200861571</v>
       </c>
       <c r="C13">
-        <v>18.11019371073995</v>
+        <v>15.69241717050665</v>
       </c>
       <c r="D13">
-        <v>4.009548041387871</v>
+        <v>5.614698786631514</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>25.26588476828102</v>
+        <v>16.14266850895025</v>
       </c>
       <c r="G13">
-        <v>2.031808724946091</v>
+        <v>19.24836095466515</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.460734393018979</v>
       </c>
       <c r="I13">
+        <v>7.422635101802154</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.32319021534451</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>40.81629290899912</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.0468991305363</v>
+        <v>10.80659750812533</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.56379301594261</v>
+        <v>23.01663857498344</v>
       </c>
       <c r="C14">
-        <v>17.95062994177233</v>
+        <v>15.58607854124647</v>
       </c>
       <c r="D14">
-        <v>4.008231610047252</v>
+        <v>5.574252610140421</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>25.08338174213337</v>
+        <v>16.03048481790004</v>
       </c>
       <c r="G14">
-        <v>2.033550799360469</v>
+        <v>19.06193733088546</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.460079754839453</v>
       </c>
       <c r="I14">
+        <v>7.468901515821639</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.11404135594417</v>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.34742313548688</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.95050920133777</v>
+        <v>10.76532293340347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.41146855263111</v>
+        <v>22.90482607628363</v>
       </c>
       <c r="C15">
-        <v>17.85236822805575</v>
+        <v>15.5204996141218</v>
       </c>
       <c r="D15">
-        <v>4.007467647286218</v>
+        <v>5.549315004418792</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>24.97227204633566</v>
+        <v>15.96194967417612</v>
       </c>
       <c r="G15">
-        <v>2.034618592873835</v>
+        <v>18.94784151733948</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.459867943334095</v>
       </c>
       <c r="I15">
+        <v>7.497675603116276</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.98524152869083</v>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.06051044322044</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.89231200623569</v>
+        <v>10.74043496730006</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.5257019552811</v>
+        <v>22.252048292498</v>
       </c>
       <c r="C16">
-        <v>17.28115286130181</v>
+        <v>15.13800946946431</v>
       </c>
       <c r="D16">
-        <v>4.003716442619537</v>
+        <v>5.403927081097102</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>24.34590212509205</v>
+        <v>15.57196948176362</v>
       </c>
       <c r="G16">
-        <v>2.040750989945515</v>
+        <v>18.35919192012094</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.461475352991293</v>
       </c>
       <c r="I16">
+        <v>7.668842773776599</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.23645194800776</v>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.41840301271988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.57157536364909</v>
+        <v>10.60374449521356</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.97069140650942</v>
+        <v>21.84093621724356</v>
       </c>
       <c r="C17">
-        <v>16.92340328694196</v>
+        <v>14.89751717395296</v>
       </c>
       <c r="D17">
-        <v>4.00195065349212</v>
+        <v>5.312543919167349</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>23.9708427658561</v>
+        <v>15.33521064409096</v>
       </c>
       <c r="G17">
-        <v>2.044527218099047</v>
+        <v>18.00490638161203</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.46489545363121</v>
       </c>
       <c r="I17">
+        <v>7.779058246789057</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.76743746992387</v>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.41064665959513</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.38601277321994</v>
+        <v>10.52507151496745</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64713579676141</v>
+        <v>21.60058856424251</v>
       </c>
       <c r="C18">
-        <v>16.71491053051925</v>
+        <v>14.75708826436873</v>
       </c>
       <c r="D18">
-        <v>4.001122805778452</v>
+        <v>5.259185198144594</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>23.75848599693418</v>
+        <v>15.1999550728474</v>
       </c>
       <c r="G18">
-        <v>2.046705310837179</v>
+        <v>17.80247979224707</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.467724686144185</v>
       </c>
       <c r="I18">
+        <v>7.844223686137599</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.4940792634019</v>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>36.83007874136462</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.28331850707639</v>
+        <v>10.48168192095241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.53683676303022</v>
+        <v>21.51854597485644</v>
       </c>
       <c r="C19">
-        <v>16.64384762455252</v>
+        <v>14.70918418034455</v>
       </c>
       <c r="D19">
-        <v>4.000873950785726</v>
+        <v>5.240982635444682</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>23.68716306192076</v>
+        <v>15.15431955865892</v>
       </c>
       <c r="G19">
-        <v>2.047443905313216</v>
+        <v>17.73417445897174</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.468827663317408</v>
       </c>
       <c r="I19">
+        <v>7.866579544073258</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.40090359862712</v>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.63327996663179</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.24923350630599</v>
+        <v>10.4673065016178</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.03021991486676</v>
+        <v>21.885102691767</v>
       </c>
       <c r="C20">
-        <v>16.96176763913437</v>
+        <v>14.92333673954978</v>
       </c>
       <c r="D20">
-        <v>4.002118993840723</v>
+        <v>5.322354536945548</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>24.01041971640386</v>
+        <v>15.36031891921033</v>
       </c>
       <c r="G20">
-        <v>2.044124619638446</v>
+        <v>18.04248126976059</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.464441435553423</v>
       </c>
       <c r="I20">
+        <v>7.767139160737306</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.81773579161747</v>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.51800399408797</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.40534664774217</v>
+        <v>10.5332528079857</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.6366114662533</v>
+        <v>23.07004183206501</v>
       </c>
       <c r="C21">
-        <v>17.99760675221366</v>
+        <v>15.61740546792995</v>
       </c>
       <c r="D21">
-        <v>4.008609387374466</v>
+        <v>5.586166683483976</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25.13684574061116</v>
+        <v>16.06339822664084</v>
       </c>
       <c r="G21">
-        <v>2.033038964743417</v>
+        <v>19.11667463284291</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.460232424566476</v>
       </c>
       <c r="I21">
+        <v>7.455220415453363</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.1756169894191</v>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.4850766491361</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.97864486989448</v>
+        <v>10.77736393110281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.64919405069038</v>
+        <v>23.8092073003197</v>
       </c>
       <c r="C22">
-        <v>18.65103311832371</v>
+        <v>16.05129220744706</v>
       </c>
       <c r="D22">
-        <v>4.014723667923339</v>
+        <v>5.751302492047821</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>25.90336823764148</v>
+        <v>16.53100585998859</v>
       </c>
       <c r="G22">
-        <v>2.025828628846513</v>
+        <v>19.89072058742933</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.465860495519976</v>
       </c>
       <c r="I22">
+        <v>7.270415825012259</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.03205989910272</v>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.43470500792534</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.39091518154205</v>
+        <v>10.95441877771713</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.11210759184596</v>
+        <v>23.41796286302933</v>
       </c>
       <c r="C23">
-        <v>18.30440542714911</v>
+        <v>15.82157587435553</v>
       </c>
       <c r="D23">
-        <v>4.011278553982986</v>
+        <v>5.663841830616296</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>25.49146077195564</v>
+        <v>16.28068880894936</v>
       </c>
       <c r="G23">
-        <v>2.029674750747026</v>
+        <v>19.47717157779051</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.462054841683458</v>
       </c>
       <c r="I23">
+        <v>7.367126474206974</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.57774675549793</v>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.39211044119957</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.16736269634264</v>
+        <v>10.85827099793833</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.0033210210622</v>
+        <v>21.86514746190862</v>
       </c>
       <c r="C24">
-        <v>16.94443189970206</v>
+        <v>14.91167045221174</v>
       </c>
       <c r="D24">
-        <v>4.002042305803931</v>
+        <v>5.317921712978012</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>23.99251679516737</v>
+        <v>15.34896478617856</v>
       </c>
       <c r="G24">
-        <v>2.044306612113149</v>
+        <v>18.02548974732223</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.464644016800507</v>
       </c>
       <c r="I24">
+        <v>7.772522202977983</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.79500750399563</v>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.4694716527034</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.39659339951956</v>
+        <v>10.52954832270426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.56255608329445</v>
+        <v>20.04186152615</v>
       </c>
       <c r="C25">
-        <v>15.37300892558859</v>
+        <v>13.85023908794511</v>
       </c>
       <c r="D25">
-        <v>3.999173609537429</v>
+        <v>4.914397542952054</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>22.50440771064633</v>
+        <v>14.37960401350617</v>
       </c>
       <c r="G25">
-        <v>2.060331894935377</v>
+        <v>16.57396088367927</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.500027791621695</v>
       </c>
       <c r="I25">
+        <v>8.27649438674387</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.73419415353584</v>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.1973817592139</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.71831815024707</v>
+        <v>10.24558169730948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.57465343029405</v>
+        <v>11.1339517624806</v>
       </c>
       <c r="C2">
-        <v>13.00478087588867</v>
+        <v>9.19092563734667</v>
       </c>
       <c r="D2">
-        <v>4.592055355000841</v>
+        <v>3.62315315705178</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.6988582401112</v>
+        <v>17.10648339475095</v>
       </c>
       <c r="G2">
-        <v>15.55321446249318</v>
+        <v>16.53636565325821</v>
       </c>
       <c r="H2">
-        <v>6.550596543966239</v>
+        <v>11.11538305794869</v>
       </c>
       <c r="I2">
-        <v>8.692268503182738</v>
+        <v>15.39394819057766</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.94742188209073</v>
+        <v>19.96649101233919</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.09208443683766</v>
+        <v>15.27676452931069</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.50408716453315</v>
+        <v>10.51735665172442</v>
       </c>
       <c r="C3">
-        <v>12.39453900718737</v>
+        <v>8.887724939487258</v>
       </c>
       <c r="D3">
-        <v>4.358403009515717</v>
+        <v>3.519532704283068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.25988445023974</v>
+        <v>17.11250326720325</v>
       </c>
       <c r="G3">
-        <v>14.89447014273975</v>
+        <v>16.51477894963819</v>
       </c>
       <c r="H3">
-        <v>6.598511466133529</v>
+        <v>11.16225475457281</v>
       </c>
       <c r="I3">
-        <v>8.997363521668138</v>
+        <v>15.51713480260586</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.65493547086518</v>
+        <v>19.35727919110772</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.01995986348197</v>
+        <v>15.34255989920806</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80982531316859</v>
+        <v>10.11788713663211</v>
       </c>
       <c r="C4">
-        <v>12.00247542026736</v>
+        <v>8.695476398131865</v>
       </c>
       <c r="D4">
-        <v>4.207668114835374</v>
+        <v>3.453700092730103</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.00207028555966</v>
+        <v>17.1228064795536</v>
       </c>
       <c r="G4">
-        <v>14.50757156792326</v>
+        <v>16.51127774048831</v>
       </c>
       <c r="H4">
-        <v>6.634145614219876</v>
+        <v>11.19330796370524</v>
       </c>
       <c r="I4">
-        <v>9.195055729959451</v>
+        <v>15.59701654360547</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.19653985641403</v>
+        <v>18.98144038684232</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.990409903377831</v>
+        <v>15.38773332158033</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.51774679478331</v>
+        <v>9.949936088562673</v>
       </c>
       <c r="C5">
-        <v>11.8385112115706</v>
+        <v>8.615698730841677</v>
       </c>
       <c r="D5">
-        <v>4.144454656695299</v>
+        <v>3.426342123454693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.90005944027405</v>
+        <v>17.12866217513389</v>
       </c>
       <c r="G5">
-        <v>14.35453082831634</v>
+        <v>16.51229570105033</v>
       </c>
       <c r="H5">
-        <v>6.650156029181395</v>
+        <v>11.20653343761598</v>
       </c>
       <c r="I5">
-        <v>9.278082688239165</v>
+        <v>15.63063649100059</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.58864030222752</v>
+        <v>18.82809404978684</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.981916044740375</v>
+        <v>15.40733671287853</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.4686982476708</v>
+        <v>9.921738948799137</v>
       </c>
       <c r="C6">
-        <v>11.81103722216929</v>
+        <v>8.60236799522777</v>
       </c>
       <c r="D6">
-        <v>4.133851462450985</v>
+        <v>3.421768072974222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12.88330777768575</v>
+        <v>17.12973443472573</v>
       </c>
       <c r="G6">
-        <v>14.32940367504706</v>
+        <v>16.51261207757898</v>
       </c>
       <c r="H6">
-        <v>6.652902406193492</v>
+        <v>11.20876398572782</v>
       </c>
       <c r="I6">
-        <v>9.292014549438694</v>
+        <v>15.63628353702683</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.48685620686552</v>
+        <v>18.80262741194279</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.980715187274933</v>
+        <v>15.41066383448011</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.80592314901225</v>
+        <v>10.11564287122398</v>
       </c>
       <c r="C7">
-        <v>12.00028088179665</v>
+        <v>8.694406166484567</v>
       </c>
       <c r="D7">
-        <v>4.206822775730795</v>
+        <v>3.453333247721986</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.00068204696619</v>
+        <v>17.12287874904364</v>
       </c>
       <c r="G7">
-        <v>14.50548861829622</v>
+        <v>16.51128158392738</v>
       </c>
       <c r="H7">
-        <v>6.634355601159567</v>
+        <v>11.19348401593062</v>
       </c>
       <c r="I7">
-        <v>9.196165643761729</v>
+        <v>15.59746563155766</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.18839754732303</v>
+        <v>18.97937271818323</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.990281200045963</v>
+        <v>15.38799286967773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.21325447487377</v>
+        <v>10.9257286892898</v>
       </c>
       <c r="C8">
-        <v>12.79807258596013</v>
+        <v>9.087698265458195</v>
       </c>
       <c r="D8">
-        <v>4.513023555510321</v>
+        <v>3.58789762012811</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>13.54513167555024</v>
+        <v>17.10718562348962</v>
       </c>
       <c r="G8">
-        <v>15.32255446393205</v>
+        <v>16.52689495306661</v>
       </c>
       <c r="H8">
-        <v>6.565782705787604</v>
+        <v>11.13107205627235</v>
       </c>
       <c r="I8">
-        <v>8.795222088995915</v>
+        <v>15.43554202046106</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.16698865333036</v>
+        <v>19.75695518406187</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.06406567699076</v>
+        <v>15.29845632054804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67560375564083</v>
+        <v>12.34576091478683</v>
       </c>
       <c r="C9">
-        <v>14.21804047364246</v>
+        <v>9.806990491616837</v>
       </c>
       <c r="D9">
-        <v>5.054308291823741</v>
+        <v>3.83326349442646</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>14.70121524235275</v>
+        <v>17.12895677297172</v>
       </c>
       <c r="G9">
-        <v>17.05577357929759</v>
+        <v>16.63503012637318</v>
       </c>
       <c r="H9">
-        <v>6.484072870934873</v>
+        <v>11.02675633285768</v>
       </c>
       <c r="I9">
-        <v>8.099067212406556</v>
+        <v>15.15168428666479</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.64879181996312</v>
+        <v>21.25704797118363</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.33225034314135</v>
+        <v>15.16101361621645</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29843034819497</v>
+        <v>13.2834387030545</v>
       </c>
       <c r="C10">
-        <v>15.16516301512848</v>
+        <v>10.29944812860641</v>
       </c>
       <c r="D10">
-        <v>5.414245880868226</v>
+        <v>4.001073446550656</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15.5991093555156</v>
+        <v>17.17704619437959</v>
       </c>
       <c r="G10">
-        <v>18.39980069546699</v>
+        <v>16.76159933680144</v>
       </c>
       <c r="H10">
-        <v>6.461204238178403</v>
+        <v>10.96117814056006</v>
       </c>
       <c r="I10">
-        <v>7.6565165335782</v>
+        <v>14.96365628838721</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.53332359170246</v>
+        <v>22.3310365653944</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.61297693183552</v>
+        <v>15.08361813407585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99530336732936</v>
+        <v>13.68669570836184</v>
       </c>
       <c r="C11">
-        <v>15.57356404894608</v>
+        <v>10.514907170276</v>
       </c>
       <c r="D11">
-        <v>5.569493436819653</v>
+        <v>4.074499827138403</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.01736809535659</v>
+        <v>17.20587066282004</v>
       </c>
       <c r="G11">
-        <v>19.04011322206122</v>
+        <v>16.82928727925874</v>
       </c>
       <c r="H11">
-        <v>6.4600280951342</v>
+        <v>10.93375670384767</v>
       </c>
       <c r="I11">
-        <v>7.47437856015125</v>
+        <v>14.88257461944381</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.2925418262502</v>
+        <v>22.81111071181895</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.76054031734147</v>
+        <v>15.05359713305101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.2531546243909</v>
+        <v>13.83602693235236</v>
       </c>
       <c r="C12">
-        <v>15.72484611114464</v>
+        <v>10.59521147537444</v>
       </c>
       <c r="D12">
-        <v>5.627035650184696</v>
+        <v>4.10187077952157</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.17714001885097</v>
+        <v>17.21778035260748</v>
       </c>
       <c r="G12">
-        <v>19.30556329958133</v>
+        <v>16.85635581667532</v>
       </c>
       <c r="H12">
-        <v>6.461011384944144</v>
+        <v>10.92372038477551</v>
       </c>
       <c r="I12">
-        <v>7.408625614581625</v>
+        <v>14.8525119645525</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.96020127499177</v>
+        <v>22.99150595583847</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.81941192068603</v>
+        <v>15.0429799612694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.19789200861571</v>
+        <v>13.80401611795768</v>
       </c>
       <c r="C13">
-        <v>15.69241717050665</v>
+        <v>10.57797446417964</v>
       </c>
       <c r="D13">
-        <v>5.614698786631514</v>
+        <v>4.095995485961135</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.14266850895025</v>
+        <v>17.2151712501355</v>
       </c>
       <c r="G13">
-        <v>19.24836095466515</v>
+        <v>16.85046255209955</v>
       </c>
       <c r="H13">
-        <v>6.460734393018979</v>
+        <v>10.92586641128858</v>
       </c>
       <c r="I13">
-        <v>7.422635101802154</v>
+        <v>14.85895796206662</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.81629290899912</v>
+        <v>22.95271944709279</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.80659750812533</v>
+        <v>15.04523307081666</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.01663857498344</v>
+        <v>13.69904899711841</v>
       </c>
       <c r="C14">
-        <v>15.58607854124647</v>
+        <v>10.52153990058702</v>
       </c>
       <c r="D14">
-        <v>5.574252610140421</v>
+        <v>4.076760432607545</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.03048481790004</v>
+        <v>17.20683058193724</v>
       </c>
       <c r="G14">
-        <v>19.06193733088546</v>
+        <v>16.8314855474578</v>
       </c>
       <c r="H14">
-        <v>6.460079754839453</v>
+        <v>10.93292403817213</v>
       </c>
       <c r="I14">
-        <v>7.468901515821639</v>
+        <v>14.88008849052363</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.34742313548688</v>
+        <v>22.82598091785019</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.76532293340347</v>
+        <v>15.0527085687339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.90482607628363</v>
+        <v>13.63431370323836</v>
       </c>
       <c r="C15">
-        <v>15.5204996141218</v>
+        <v>10.48680321728668</v>
       </c>
       <c r="D15">
-        <v>5.549315004418792</v>
+        <v>4.064921455901983</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15.96194967417612</v>
+        <v>17.20185102593189</v>
       </c>
       <c r="G15">
-        <v>18.94784151733948</v>
+        <v>16.82004808148557</v>
       </c>
       <c r="H15">
-        <v>6.459867943334095</v>
+        <v>10.93729233294593</v>
       </c>
       <c r="I15">
-        <v>7.497675603116276</v>
+        <v>14.89311508172285</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.06051044322044</v>
+        <v>22.74816282512138</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.74043496730006</v>
+        <v>15.0573854992693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.252048292498</v>
+        <v>13.25661395792485</v>
       </c>
       <c r="C16">
-        <v>15.13800946946431</v>
+        <v>10.28519029853633</v>
       </c>
       <c r="D16">
-        <v>5.403927081097102</v>
+        <v>3.996214924247871</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.57196948176362</v>
+        <v>17.17530190535094</v>
       </c>
       <c r="G16">
-        <v>18.35919192012094</v>
+        <v>16.7573778430197</v>
       </c>
       <c r="H16">
-        <v>6.461475352991293</v>
+        <v>10.9630187823774</v>
       </c>
       <c r="I16">
-        <v>7.668842773776599</v>
+        <v>14.96904484543353</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.41840301271988</v>
+        <v>22.29947617078089</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.60374449521356</v>
+        <v>15.08568490392417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84093621724356</v>
+        <v>13.01892158867771</v>
       </c>
       <c r="C17">
-        <v>14.89751717395296</v>
+        <v>10.15927362576457</v>
       </c>
       <c r="D17">
-        <v>5.312543919167349</v>
+        <v>3.953308567450247</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.33521064409096</v>
+        <v>17.16079173317798</v>
       </c>
       <c r="G17">
-        <v>18.00490638161203</v>
+        <v>16.72151036063241</v>
       </c>
       <c r="H17">
-        <v>6.46489545363121</v>
+        <v>10.97941917862786</v>
       </c>
       <c r="I17">
-        <v>7.779058246789057</v>
+        <v>15.01676642995571</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.41064665959513</v>
+        <v>22.02191508341014</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.52507151496745</v>
+        <v>15.10437793826157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.60058856424251</v>
+        <v>12.88001528174837</v>
       </c>
       <c r="C18">
-        <v>14.75708826436873</v>
+        <v>10.08604653767604</v>
       </c>
       <c r="D18">
-        <v>5.259185198144594</v>
+        <v>3.928356758000629</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.1999550728474</v>
+        <v>17.15310026605612</v>
       </c>
       <c r="G18">
-        <v>17.80247979224707</v>
+        <v>16.70183334512755</v>
       </c>
       <c r="H18">
-        <v>6.467724686144185</v>
+        <v>10.98907907395778</v>
       </c>
       <c r="I18">
-        <v>7.844223686137599</v>
+        <v>15.04463372158566</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.83007874136462</v>
+        <v>21.86147976371106</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.48168192095241</v>
+        <v>15.1156175625669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.51854597485644</v>
+        <v>12.83260834827503</v>
       </c>
       <c r="C19">
-        <v>14.70918418034455</v>
+        <v>10.06111692114148</v>
       </c>
       <c r="D19">
-        <v>5.240982635444682</v>
+        <v>3.919862077254167</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.15431955865892</v>
+        <v>17.15060857578843</v>
       </c>
       <c r="G19">
-        <v>17.73417445897174</v>
+        <v>16.69533518485142</v>
       </c>
       <c r="H19">
-        <v>6.468827663317408</v>
+        <v>10.9923886757888</v>
       </c>
       <c r="I19">
-        <v>7.866579544073258</v>
+        <v>15.05414106460182</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.63327996663179</v>
+        <v>21.80702923172069</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.4673065016178</v>
+        <v>15.11950673511267</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.885102691767</v>
+        <v>13.04445139527043</v>
       </c>
       <c r="C20">
-        <v>14.92333673954978</v>
+        <v>10.17276120640521</v>
       </c>
       <c r="D20">
-        <v>5.322354536945548</v>
+        <v>3.957904415223175</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15.36031891921033</v>
+        <v>17.16226866632512</v>
       </c>
       <c r="G20">
-        <v>18.04248126976059</v>
+        <v>16.72522999444498</v>
       </c>
       <c r="H20">
-        <v>6.464441435553423</v>
+        <v>10.97764984631551</v>
       </c>
       <c r="I20">
-        <v>7.767139160737306</v>
+        <v>15.01164300503403</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.51800399408797</v>
+        <v>22.05154499251239</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.5332528079857</v>
+        <v>15.10233749932851</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.07004183206501</v>
+        <v>13.72997209252052</v>
       </c>
       <c r="C21">
-        <v>15.61740546792995</v>
+        <v>10.5381513824209</v>
       </c>
       <c r="D21">
-        <v>5.586166683483976</v>
+        <v>4.082422127752193</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.06339822664084</v>
+        <v>17.2092534938911</v>
       </c>
       <c r="G21">
-        <v>19.11667463284291</v>
+        <v>16.83702072477289</v>
       </c>
       <c r="H21">
-        <v>6.460232424566476</v>
+        <v>10.93084160100243</v>
       </c>
       <c r="I21">
-        <v>7.455220415453363</v>
+        <v>14.87386453232088</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.4850766491361</v>
+        <v>22.86324637638478</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.77736393110281</v>
+        <v>15.05049240737029</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.8092073003197</v>
+        <v>14.15833004832103</v>
       </c>
       <c r="C22">
-        <v>16.05129220744706</v>
+        <v>10.76944239748991</v>
       </c>
       <c r="D22">
-        <v>5.751302492047821</v>
+        <v>4.161265838082515</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>16.53100585998859</v>
+        <v>17.245754076089</v>
       </c>
       <c r="G22">
-        <v>19.89072058742933</v>
+        <v>16.91844491694499</v>
       </c>
       <c r="H22">
-        <v>6.465860495519976</v>
+        <v>10.9022761441352</v>
       </c>
       <c r="I22">
-        <v>7.270415825012259</v>
+        <v>14.78755630993841</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.43470500792534</v>
+        <v>23.38551920272064</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.95441877771713</v>
+        <v>15.02098907330818</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.41796286302933</v>
+        <v>13.93151314807053</v>
       </c>
       <c r="C23">
-        <v>15.82157587435553</v>
+        <v>10.64670161777727</v>
       </c>
       <c r="D23">
-        <v>5.663841830616296</v>
+        <v>4.119422152963404</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.28068880894936</v>
+        <v>17.22574492482722</v>
       </c>
       <c r="G23">
-        <v>19.47717157779051</v>
+        <v>16.87422895122889</v>
       </c>
       <c r="H23">
-        <v>6.462054841683458</v>
+        <v>10.91733632555325</v>
       </c>
       <c r="I23">
-        <v>7.367126474206974</v>
+        <v>14.83327829180767</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.39211044119957</v>
+        <v>23.1075786994847</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.85827099793833</v>
+        <v>15.03633306452442</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.86514746190862</v>
+        <v>13.03291638794936</v>
       </c>
       <c r="C24">
-        <v>14.91167045221174</v>
+        <v>10.16666607071357</v>
       </c>
       <c r="D24">
-        <v>5.317921712978012</v>
+        <v>3.95582751701864</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.34896478617856</v>
+        <v>17.16159891796611</v>
       </c>
       <c r="G24">
-        <v>18.02548974732223</v>
+        <v>16.72354540738666</v>
       </c>
       <c r="H24">
-        <v>6.464644016800507</v>
+        <v>10.97844904173639</v>
       </c>
       <c r="I24">
-        <v>7.772522202977983</v>
+        <v>15.01395796142437</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.4694716527034</v>
+        <v>22.03815198109268</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.52954832270426</v>
+        <v>15.10325844736921</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.04186152615</v>
+        <v>11.97999144143479</v>
       </c>
       <c r="C25">
-        <v>13.85023908794511</v>
+        <v>9.618444587814226</v>
       </c>
       <c r="D25">
-        <v>4.914397542952054</v>
+        <v>3.768996502640696</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14.37960401350617</v>
+        <v>17.11742893297965</v>
       </c>
       <c r="G25">
-        <v>16.57396088367927</v>
+        <v>16.59747399047141</v>
       </c>
       <c r="H25">
-        <v>6.500027791621695</v>
+        <v>11.05303701956284</v>
       </c>
       <c r="I25">
-        <v>8.27649438674387</v>
+        <v>15.22487138325943</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.1973817592139</v>
+        <v>20.85529671751131</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.24558169730948</v>
+        <v>15.19407731386453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.1339517624806</v>
+        <v>18.57465343029408</v>
       </c>
       <c r="C2">
-        <v>9.19092563734667</v>
+        <v>13.00478087588863</v>
       </c>
       <c r="D2">
-        <v>3.62315315705178</v>
+        <v>4.592055355000828</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.10648339475095</v>
+        <v>13.69885824011118</v>
       </c>
       <c r="G2">
-        <v>16.53636565325821</v>
+        <v>15.55321446249319</v>
       </c>
       <c r="H2">
-        <v>11.11538305794869</v>
+        <v>6.550596543966249</v>
       </c>
       <c r="I2">
-        <v>15.39394819057766</v>
+        <v>8.692268503182721</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96649101233919</v>
+        <v>29.94742188209062</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.27676452931069</v>
+        <v>10.09208443683763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.51735665172442</v>
+        <v>17.50408716453321</v>
       </c>
       <c r="C3">
-        <v>8.887724939487258</v>
+        <v>12.39453900718726</v>
       </c>
       <c r="D3">
-        <v>3.519532704283068</v>
+        <v>4.358403009515694</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.11250326720325</v>
+        <v>13.25988445023971</v>
       </c>
       <c r="G3">
-        <v>16.51477894963819</v>
+        <v>14.89447014273973</v>
       </c>
       <c r="H3">
-        <v>11.16225475457281</v>
+        <v>6.598511466133533</v>
       </c>
       <c r="I3">
-        <v>15.51713480260586</v>
+        <v>8.997363521668026</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.35727919110772</v>
+        <v>27.65493547086522</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.34255989920806</v>
+        <v>10.01995986348192</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.11788713663211</v>
+        <v>16.80982531316857</v>
       </c>
       <c r="C4">
-        <v>8.695476398131865</v>
+        <v>12.00247542026737</v>
       </c>
       <c r="D4">
-        <v>3.453700092730103</v>
+        <v>4.207668114835374</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.1228064795536</v>
+        <v>13.0020702855595</v>
       </c>
       <c r="G4">
-        <v>16.51127774048831</v>
+        <v>14.50757156792317</v>
       </c>
       <c r="H4">
-        <v>11.19330796370524</v>
+        <v>6.634145614219808</v>
       </c>
       <c r="I4">
-        <v>15.59701654360547</v>
+        <v>9.195055729959353</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98144038684232</v>
+        <v>26.19653985641401</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.38773332158033</v>
+        <v>9.990409903377701</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.949936088562673</v>
+        <v>16.51774679478324</v>
       </c>
       <c r="C5">
-        <v>8.615698730841677</v>
+        <v>11.83851121157056</v>
       </c>
       <c r="D5">
-        <v>3.426342123454693</v>
+        <v>4.144454656695337</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.12866217513389</v>
+        <v>12.90005944027409</v>
       </c>
       <c r="G5">
-        <v>16.51229570105033</v>
+        <v>14.35453082831647</v>
       </c>
       <c r="H5">
-        <v>11.20653343761598</v>
+        <v>6.650156029181521</v>
       </c>
       <c r="I5">
-        <v>15.63063649100059</v>
+        <v>9.278082688239273</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.82809404978684</v>
+        <v>25.58864030222748</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.40733671287853</v>
+        <v>9.981916044740419</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.921738948799137</v>
+        <v>16.46869824767082</v>
       </c>
       <c r="C6">
-        <v>8.60236799522777</v>
+        <v>11.81103722216934</v>
       </c>
       <c r="D6">
-        <v>3.421768072974222</v>
+        <v>4.133851462450835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.12973443472573</v>
+        <v>12.88330777768583</v>
       </c>
       <c r="G6">
-        <v>16.51261207757898</v>
+        <v>14.32940367504719</v>
       </c>
       <c r="H6">
-        <v>11.20876398572782</v>
+        <v>6.652902406193552</v>
       </c>
       <c r="I6">
-        <v>15.63628353702683</v>
+        <v>9.292014549438804</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80262741194279</v>
+        <v>25.4868562068655</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.41066383448011</v>
+        <v>9.980715187275006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.11564287122398</v>
+        <v>16.80592314901223</v>
       </c>
       <c r="C7">
-        <v>8.694406166484567</v>
+        <v>12.00028088179653</v>
       </c>
       <c r="D7">
-        <v>3.453333247721986</v>
+        <v>4.206822775730802</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.12287874904364</v>
+        <v>13.00068204696625</v>
       </c>
       <c r="G7">
-        <v>16.51128158392738</v>
+        <v>14.50548861829627</v>
       </c>
       <c r="H7">
-        <v>11.19348401593062</v>
+        <v>6.634355601159688</v>
       </c>
       <c r="I7">
-        <v>15.59746563155766</v>
+        <v>9.196165643761777</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.97937271818323</v>
+        <v>26.18839754732302</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.38799286967773</v>
+        <v>9.990281200046034</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9257286892898</v>
+        <v>18.21325447487378</v>
       </c>
       <c r="C8">
-        <v>9.087698265458195</v>
+        <v>12.7980725859602</v>
       </c>
       <c r="D8">
-        <v>3.58789762012811</v>
+        <v>4.513023555510283</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.10718562348962</v>
+        <v>13.54513167555033</v>
       </c>
       <c r="G8">
-        <v>16.52689495306661</v>
+        <v>15.32255446393217</v>
       </c>
       <c r="H8">
-        <v>11.13107205627235</v>
+        <v>6.565782705787612</v>
       </c>
       <c r="I8">
-        <v>15.43554202046106</v>
+        <v>8.795222088996056</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75695518406187</v>
+        <v>29.16698865333036</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.29845632054804</v>
+        <v>10.06406567699081</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.34576091478683</v>
+        <v>20.67560375564078</v>
       </c>
       <c r="C9">
-        <v>9.806990491616837</v>
+        <v>14.21804047364247</v>
       </c>
       <c r="D9">
-        <v>3.83326349442646</v>
+        <v>5.054308291823857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.12895677297172</v>
+        <v>14.70121524235277</v>
       </c>
       <c r="G9">
-        <v>16.63503012637318</v>
+        <v>17.0557735792977</v>
       </c>
       <c r="H9">
-        <v>11.02675633285768</v>
+        <v>6.48407287093489</v>
       </c>
       <c r="I9">
-        <v>15.15168428666479</v>
+        <v>8.099067212406615</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25704797118363</v>
+        <v>34.64879181996308</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.16101361621645</v>
+        <v>10.3322503431414</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.2834387030545</v>
+        <v>22.29843034819505</v>
       </c>
       <c r="C10">
-        <v>10.29944812860641</v>
+        <v>15.16516301512861</v>
       </c>
       <c r="D10">
-        <v>4.001073446550656</v>
+        <v>5.414245880868173</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.17704619437959</v>
+        <v>15.59910935551556</v>
       </c>
       <c r="G10">
-        <v>16.76159933680144</v>
+        <v>18.39980069546707</v>
       </c>
       <c r="H10">
-        <v>10.96117814056006</v>
+        <v>6.461204238178234</v>
       </c>
       <c r="I10">
-        <v>14.96365628838721</v>
+        <v>7.656516533578056</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.3310365653944</v>
+        <v>38.53332359170246</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.08361813407585</v>
+        <v>10.61297693183541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.68669570836184</v>
+        <v>22.99530336732936</v>
       </c>
       <c r="C11">
-        <v>10.514907170276</v>
+        <v>15.57356404894604</v>
       </c>
       <c r="D11">
-        <v>4.074499827138403</v>
+        <v>5.569493436819752</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.20587066282004</v>
+        <v>16.01736809535656</v>
       </c>
       <c r="G11">
-        <v>16.82928727925874</v>
+        <v>19.04011322206118</v>
       </c>
       <c r="H11">
-        <v>10.93375670384767</v>
+        <v>6.460028095134186</v>
       </c>
       <c r="I11">
-        <v>14.88257461944381</v>
+        <v>7.47437856015133</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.81111071181895</v>
+        <v>40.29254182625024</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.05359713305101</v>
+        <v>10.76054031734146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.83602693235236</v>
+        <v>23.25315462439094</v>
       </c>
       <c r="C12">
-        <v>10.59521147537444</v>
+        <v>15.72484611114461</v>
       </c>
       <c r="D12">
-        <v>4.10187077952157</v>
+        <v>5.62703565018472</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.21778035260748</v>
+        <v>16.17714001885096</v>
       </c>
       <c r="G12">
-        <v>16.85635581667532</v>
+        <v>19.30556329958135</v>
       </c>
       <c r="H12">
-        <v>10.92372038477551</v>
+        <v>6.461011384944087</v>
       </c>
       <c r="I12">
-        <v>14.8525119645525</v>
+        <v>7.408625614581537</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.99150595583847</v>
+        <v>40.96020127499182</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.0429799612694</v>
+        <v>10.81941192068598</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.80401611795768</v>
+        <v>23.19789200861571</v>
       </c>
       <c r="C13">
-        <v>10.57797446417964</v>
+        <v>15.69241717050667</v>
       </c>
       <c r="D13">
-        <v>4.095995485961135</v>
+        <v>5.614698786631521</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.2151712501355</v>
+        <v>16.14266850895025</v>
       </c>
       <c r="G13">
-        <v>16.85046255209955</v>
+        <v>19.24836095466513</v>
       </c>
       <c r="H13">
-        <v>10.92586641128858</v>
+        <v>6.460734393018928</v>
       </c>
       <c r="I13">
-        <v>14.85895796206662</v>
+        <v>7.422635101802156</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.95271944709279</v>
+        <v>40.81629290899907</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.04523307081666</v>
+        <v>10.8065975081253</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.69904899711841</v>
+        <v>23.01663857498344</v>
       </c>
       <c r="C14">
-        <v>10.52153990058702</v>
+        <v>15.5860785412466</v>
       </c>
       <c r="D14">
-        <v>4.076760432607545</v>
+        <v>5.57425261014049</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.20683058193724</v>
+        <v>16.03048481790003</v>
       </c>
       <c r="G14">
-        <v>16.8314855474578</v>
+        <v>19.06193733088557</v>
       </c>
       <c r="H14">
-        <v>10.93292403817213</v>
+        <v>6.460079754839458</v>
       </c>
       <c r="I14">
-        <v>14.88008849052363</v>
+        <v>7.468901515821597</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.82598091785019</v>
+        <v>40.34742313548686</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.0527085687339</v>
+        <v>10.76532293340344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.63431370323836</v>
+        <v>22.90482607628367</v>
       </c>
       <c r="C15">
-        <v>10.48680321728668</v>
+        <v>15.52049961412182</v>
       </c>
       <c r="D15">
-        <v>4.064921455901983</v>
+        <v>5.5493150044188</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.20185102593189</v>
+        <v>15.96194967417607</v>
       </c>
       <c r="G15">
-        <v>16.82004808148557</v>
+        <v>18.94784151733938</v>
       </c>
       <c r="H15">
-        <v>10.93729233294593</v>
+        <v>6.459867943334004</v>
       </c>
       <c r="I15">
-        <v>14.89311508172285</v>
+        <v>7.497675603116207</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74816282512138</v>
+        <v>40.06051044322037</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.0573854992693</v>
+        <v>10.74043496730002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.25661395792485</v>
+        <v>22.25204829249799</v>
       </c>
       <c r="C16">
-        <v>10.28519029853633</v>
+        <v>15.13800946946418</v>
       </c>
       <c r="D16">
-        <v>3.996214924247871</v>
+        <v>5.403927081097095</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.17530190535094</v>
+        <v>15.57196948176374</v>
       </c>
       <c r="G16">
-        <v>16.7573778430197</v>
+        <v>18.35919192012103</v>
       </c>
       <c r="H16">
-        <v>10.9630187823774</v>
+        <v>6.461475352991313</v>
       </c>
       <c r="I16">
-        <v>14.96904484543353</v>
+        <v>7.668842773776739</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29947617078089</v>
+        <v>38.41840301271984</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.08568490392417</v>
+        <v>10.60374449521369</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.01892158867771</v>
+        <v>21.84093621724359</v>
       </c>
       <c r="C17">
-        <v>10.15927362576457</v>
+        <v>14.89751717395294</v>
       </c>
       <c r="D17">
-        <v>3.953308567450247</v>
+        <v>5.312543919167381</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.16079173317798</v>
+        <v>15.33521064409093</v>
       </c>
       <c r="G17">
-        <v>16.72151036063241</v>
+        <v>18.00490638161206</v>
       </c>
       <c r="H17">
-        <v>10.97941917862786</v>
+        <v>6.464895453631167</v>
       </c>
       <c r="I17">
-        <v>15.01676642995571</v>
+        <v>7.779058246789014</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.02191508341014</v>
+        <v>37.41064665959509</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.10437793826157</v>
+        <v>10.52507151496741</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88001528174837</v>
+        <v>21.60058856424251</v>
       </c>
       <c r="C18">
-        <v>10.08604653767604</v>
+        <v>14.75708826436867</v>
       </c>
       <c r="D18">
-        <v>3.928356758000629</v>
+        <v>5.259185198144738</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.15310026605612</v>
+        <v>15.19995507284742</v>
       </c>
       <c r="G18">
-        <v>16.70183334512755</v>
+        <v>17.80247979224715</v>
       </c>
       <c r="H18">
-        <v>10.98907907395778</v>
+        <v>6.467724686144198</v>
       </c>
       <c r="I18">
-        <v>15.04463372158566</v>
+        <v>7.844223686137656</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.86147976371106</v>
+        <v>36.83007874136466</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.1156175625669</v>
+        <v>10.48168192095244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.83260834827503</v>
+        <v>21.51854597485647</v>
       </c>
       <c r="C19">
-        <v>10.06111692114148</v>
+        <v>14.70918418034455</v>
       </c>
       <c r="D19">
-        <v>3.919862077254167</v>
+        <v>5.240982635444794</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.15060857578843</v>
+        <v>15.15431955865886</v>
       </c>
       <c r="G19">
-        <v>16.69533518485142</v>
+        <v>17.73417445897167</v>
       </c>
       <c r="H19">
-        <v>10.9923886757888</v>
+        <v>6.468827663317398</v>
       </c>
       <c r="I19">
-        <v>15.05414106460182</v>
+        <v>7.866579544073216</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80702923172069</v>
+        <v>36.63327996663184</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.11950673511267</v>
+        <v>10.46730650161778</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.04445139527043</v>
+        <v>21.88510269176696</v>
       </c>
       <c r="C20">
-        <v>10.17276120640521</v>
+        <v>14.92333673954969</v>
       </c>
       <c r="D20">
-        <v>3.957904415223175</v>
+        <v>5.322354536945509</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.16226866632512</v>
+        <v>15.36031891921038</v>
       </c>
       <c r="G20">
-        <v>16.72522999444498</v>
+        <v>18.04248126976064</v>
       </c>
       <c r="H20">
-        <v>10.97764984631551</v>
+        <v>6.464441435553475</v>
       </c>
       <c r="I20">
-        <v>15.01164300503403</v>
+        <v>7.767139160737329</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.05154499251239</v>
+        <v>37.5180039940879</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.10233749932851</v>
+        <v>10.53325280798579</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.72997209252052</v>
+        <v>23.07004183206502</v>
       </c>
       <c r="C21">
-        <v>10.5381513824209</v>
+        <v>15.6174054679299</v>
       </c>
       <c r="D21">
-        <v>4.082422127752193</v>
+        <v>5.586166683484032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.2092534938911</v>
+        <v>16.06339822664086</v>
       </c>
       <c r="G21">
-        <v>16.83702072477289</v>
+        <v>19.11667463284302</v>
       </c>
       <c r="H21">
-        <v>10.93084160100243</v>
+        <v>6.460232424566483</v>
       </c>
       <c r="I21">
-        <v>14.87386453232088</v>
+        <v>7.455220415453398</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86324637638478</v>
+        <v>40.48507664913614</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.05049240737029</v>
+        <v>10.77736393110284</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.15833004832103</v>
+        <v>23.80920730031973</v>
       </c>
       <c r="C22">
-        <v>10.76944239748991</v>
+        <v>16.05129220744712</v>
       </c>
       <c r="D22">
-        <v>4.161265838082515</v>
+        <v>5.751302492047851</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.245754076089</v>
+        <v>16.53100585998858</v>
       </c>
       <c r="G22">
-        <v>16.91844491694499</v>
+        <v>19.8907205874295</v>
       </c>
       <c r="H22">
-        <v>10.9022761441352</v>
+        <v>6.465860495519903</v>
       </c>
       <c r="I22">
-        <v>14.78755630993841</v>
+        <v>7.270415825012141</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.38551920272064</v>
+        <v>42.43470500792543</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.02098907330818</v>
+        <v>10.95441877771705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.93151314807053</v>
+        <v>23.41796286302937</v>
       </c>
       <c r="C23">
-        <v>10.64670161777727</v>
+        <v>15.82157587435546</v>
       </c>
       <c r="D23">
-        <v>4.119422152963404</v>
+        <v>5.663841830616358</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.22574492482722</v>
+        <v>16.28068880894935</v>
       </c>
       <c r="G23">
-        <v>16.87422895122889</v>
+        <v>19.47717157779061</v>
       </c>
       <c r="H23">
-        <v>10.91733632555325</v>
+        <v>6.462054841683414</v>
       </c>
       <c r="I23">
-        <v>14.83327829180767</v>
+        <v>7.367126474206842</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.1075786994847</v>
+        <v>41.39211044119956</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.03633306452442</v>
+        <v>10.85827099793828</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.03291638794936</v>
+        <v>21.86514746190858</v>
       </c>
       <c r="C24">
-        <v>10.16666607071357</v>
+        <v>14.91167045221164</v>
       </c>
       <c r="D24">
-        <v>3.95582751701864</v>
+        <v>5.317921712977998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.16159891796611</v>
+        <v>15.3489647861786</v>
       </c>
       <c r="G24">
-        <v>16.72354540738666</v>
+        <v>18.02548974732225</v>
       </c>
       <c r="H24">
-        <v>10.97844904173639</v>
+        <v>6.464644016800548</v>
       </c>
       <c r="I24">
-        <v>15.01395796142437</v>
+        <v>7.772522202978046</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03815198109268</v>
+        <v>37.46947165270343</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.10325844736921</v>
+        <v>10.5295483227043</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.97999144143479</v>
+        <v>20.04186152615001</v>
       </c>
       <c r="C25">
-        <v>9.618444587814226</v>
+        <v>13.85023908794495</v>
       </c>
       <c r="D25">
-        <v>3.768996502640696</v>
+        <v>4.914397542952082</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.11742893297965</v>
+        <v>14.37960401350628</v>
       </c>
       <c r="G25">
-        <v>16.59747399047141</v>
+        <v>16.57396088367936</v>
       </c>
       <c r="H25">
-        <v>11.05303701956284</v>
+        <v>6.500027791621767</v>
       </c>
       <c r="I25">
-        <v>15.22487138325943</v>
+        <v>8.276494386743986</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85529671751131</v>
+        <v>33.19738175921387</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.19407731386453</v>
+        <v>10.24558169730957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.57465343029408</v>
+        <v>13.84566768274095</v>
       </c>
       <c r="C2">
-        <v>13.00478087588863</v>
+        <v>9.247397978147688</v>
       </c>
       <c r="D2">
-        <v>4.592055355000828</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.984808631937423</v>
       </c>
       <c r="F2">
-        <v>13.69885824011118</v>
+        <v>13.07334004795375</v>
       </c>
       <c r="G2">
-        <v>15.55321446249319</v>
-      </c>
-      <c r="H2">
-        <v>6.550596543966249</v>
+        <v>14.03250896832723</v>
       </c>
       <c r="I2">
-        <v>8.692268503182721</v>
+        <v>2.679301548360183</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.496771203464621</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>11.46981153711508</v>
       </c>
       <c r="M2">
-        <v>29.94742188209062</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>10.09208443683763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.74039960167812</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.07874071300493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.50408716453321</v>
+        <v>13.00877682477472</v>
       </c>
       <c r="C3">
-        <v>12.39453900718726</v>
+        <v>8.873058940405452</v>
       </c>
       <c r="D3">
-        <v>4.358403009515694</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.687950254562256</v>
       </c>
       <c r="F3">
-        <v>13.25988445023971</v>
+        <v>13.13494327699637</v>
       </c>
       <c r="G3">
-        <v>14.89447014273973</v>
-      </c>
-      <c r="H3">
-        <v>6.598511466133533</v>
+        <v>14.33072718742142</v>
       </c>
       <c r="I3">
-        <v>8.997363521668026</v>
+        <v>2.560712057100509</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.619618285239257</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>11.7271844227223</v>
       </c>
       <c r="M3">
-        <v>27.65493547086522</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>10.01995986348192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.09387934948227</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.29893952972712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.80982531316857</v>
+        <v>12.46462590563873</v>
       </c>
       <c r="C4">
-        <v>12.00247542026737</v>
+        <v>8.637606670481457</v>
       </c>
       <c r="D4">
-        <v>4.207668114835374</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>5.49756209124063</v>
       </c>
       <c r="F4">
-        <v>13.0020702855595</v>
+        <v>13.18430843685241</v>
       </c>
       <c r="G4">
-        <v>14.50757156792317</v>
-      </c>
-      <c r="H4">
-        <v>6.634145614219808</v>
+        <v>14.52975191787779</v>
       </c>
       <c r="I4">
-        <v>9.195055729959353</v>
+        <v>2.485908682736638</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.697793434545622</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>11.88936044604022</v>
       </c>
       <c r="M4">
-        <v>26.19653985641401</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>9.990409903377701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.67858276472721</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.44038448913595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.51774679478324</v>
+        <v>12.23283347707743</v>
       </c>
       <c r="C5">
-        <v>11.83851121157056</v>
+        <v>8.548622483330034</v>
       </c>
       <c r="D5">
-        <v>4.144454656695337</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>5.419776835012965</v>
       </c>
       <c r="F5">
-        <v>12.90005944027409</v>
+        <v>13.20141144918904</v>
       </c>
       <c r="G5">
-        <v>14.35453082831647</v>
-      </c>
-      <c r="H5">
-        <v>6.650156029181521</v>
+        <v>14.60585467655923</v>
       </c>
       <c r="I5">
-        <v>9.278082688239273</v>
+        <v>2.493173145612554</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.729096171100504</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>11.95435686601838</v>
       </c>
       <c r="M5">
-        <v>25.58864030222748</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>9.981916044740419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.50669996241648</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.49632507626412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.46869824767082</v>
+        <v>12.19085999588472</v>
       </c>
       <c r="C6">
-        <v>11.81103722216934</v>
+        <v>8.543941116400312</v>
       </c>
       <c r="D6">
-        <v>4.133851462450835</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>5.408935404018676</v>
       </c>
       <c r="F6">
-        <v>12.88330777768583</v>
+        <v>13.19732775123627</v>
       </c>
       <c r="G6">
-        <v>14.32940367504719</v>
-      </c>
-      <c r="H6">
-        <v>6.652902406193552</v>
+        <v>14.60800630133273</v>
       </c>
       <c r="I6">
-        <v>9.292014549438804</v>
+        <v>2.503346918866066</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.732819001915546</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>11.96260082724203</v>
       </c>
       <c r="M6">
-        <v>25.4868562068655</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>9.980715187275006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.48015106958232</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.5017606703598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.80592314901223</v>
+        <v>12.45344122067524</v>
       </c>
       <c r="C7">
-        <v>12.00028088179653</v>
+        <v>8.663860278046251</v>
       </c>
       <c r="D7">
-        <v>4.206822775730802</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>5.502419209116621</v>
       </c>
       <c r="F7">
-        <v>13.00068204696625</v>
+        <v>13.16516705656957</v>
       </c>
       <c r="G7">
-        <v>14.50548861829627</v>
-      </c>
-      <c r="H7">
-        <v>6.634355601159688</v>
+        <v>14.50138658767657</v>
       </c>
       <c r="I7">
-        <v>9.196165643761777</v>
+        <v>2.488280426909756</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.694078470852086</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>11.88312170857958</v>
       </c>
       <c r="M7">
-        <v>26.18839754732302</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>9.990281200046034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.6823653871875</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.43034379732442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.21325447487378</v>
+        <v>13.55349430934409</v>
       </c>
       <c r="C8">
-        <v>12.7980725859602</v>
+        <v>9.154395374965953</v>
       </c>
       <c r="D8">
-        <v>4.513023555510283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.891558204666366</v>
       </c>
       <c r="F8">
-        <v>13.54513167555033</v>
+        <v>13.06653605863185</v>
       </c>
       <c r="G8">
-        <v>15.32255446393217</v>
-      </c>
-      <c r="H8">
-        <v>6.565782705787612</v>
+        <v>14.09244550199362</v>
       </c>
       <c r="I8">
-        <v>8.795222088996056</v>
+        <v>2.641932548375301</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.533114486807737</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>11.54844666192485</v>
       </c>
       <c r="M8">
-        <v>29.16698865333036</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>10.06406567699081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.52900052457668</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.13899868104082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67560375564078</v>
+        <v>15.48191005790779</v>
       </c>
       <c r="C9">
-        <v>14.21804047364247</v>
+        <v>10.02266778128758</v>
       </c>
       <c r="D9">
-        <v>5.054308291823857</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>6.578817406815142</v>
       </c>
       <c r="F9">
-        <v>14.70121524235277</v>
+        <v>13.00460216889806</v>
       </c>
       <c r="G9">
-        <v>17.0557735792977</v>
-      </c>
-      <c r="H9">
-        <v>6.48407287093489</v>
+        <v>13.48226356154573</v>
       </c>
       <c r="I9">
-        <v>8.099067212406615</v>
+        <v>2.924199510777012</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.246789503033144</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>10.93679157469891</v>
       </c>
       <c r="M9">
-        <v>34.64879181996308</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>10.3322503431414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.02960622512636</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10.63862880311849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.29843034819505</v>
+        <v>16.74717055137137</v>
       </c>
       <c r="C10">
-        <v>15.16516301512861</v>
+        <v>10.64073139660558</v>
       </c>
       <c r="D10">
-        <v>5.414245880868173</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>7.044259490348513</v>
       </c>
       <c r="F10">
-        <v>15.59910935551556</v>
+        <v>13.0157712001297</v>
       </c>
       <c r="G10">
-        <v>18.39980069546707</v>
-      </c>
-      <c r="H10">
-        <v>6.461204238178234</v>
+        <v>13.12088508992082</v>
       </c>
       <c r="I10">
-        <v>7.656516533578056</v>
+        <v>3.124265013409348</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.048138049585019</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>10.50269093228313</v>
       </c>
       <c r="M10">
-        <v>38.53332359170246</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>10.61297693183541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.03940209711414</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10.30017444445322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99530336732936</v>
+        <v>17.28096625707421</v>
       </c>
       <c r="C11">
-        <v>15.57356404894604</v>
+        <v>10.95150467331955</v>
       </c>
       <c r="D11">
-        <v>5.569493436819752</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>7.254202724177682</v>
       </c>
       <c r="F11">
-        <v>16.01736809535656</v>
+        <v>13.00587289888238</v>
       </c>
       <c r="G11">
-        <v>19.04011322206118</v>
-      </c>
-      <c r="H11">
-        <v>6.460028095134186</v>
+        <v>12.93212161295073</v>
       </c>
       <c r="I11">
-        <v>7.47437856015133</v>
+        <v>3.21830076051164</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.954097471934789</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>10.29800490195542</v>
       </c>
       <c r="M11">
-        <v>40.29254182625024</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>10.76054031734146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.48539587417376</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.1362188295614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.25315462439094</v>
+        <v>17.48381454729234</v>
       </c>
       <c r="C12">
-        <v>15.72484611114461</v>
+        <v>11.0478383572124</v>
       </c>
       <c r="D12">
-        <v>5.62703565018472</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>7.328183335896724</v>
       </c>
       <c r="F12">
-        <v>16.17714001885096</v>
+        <v>13.02099518926272</v>
       </c>
       <c r="G12">
-        <v>19.30556329958135</v>
-      </c>
-      <c r="H12">
-        <v>6.461011384944087</v>
+        <v>12.89169905117721</v>
       </c>
       <c r="I12">
-        <v>7.408625614581537</v>
+        <v>3.251179262154988</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.92252028428402</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>10.2269022466139</v>
       </c>
       <c r="M12">
-        <v>40.96020127499182</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>10.81941192068598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.64685900192335</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.0850948697463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.19789200861571</v>
+        <v>17.44137363776727</v>
       </c>
       <c r="C13">
-        <v>15.69241717050667</v>
+        <v>11.02314706749159</v>
       </c>
       <c r="D13">
-        <v>5.614698786631521</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>7.311494168718208</v>
       </c>
       <c r="F13">
-        <v>16.14266850895025</v>
+        <v>13.02092669263178</v>
       </c>
       <c r="G13">
-        <v>19.24836095466513</v>
-      </c>
-      <c r="H13">
-        <v>6.460734393018928</v>
+        <v>12.90563513131417</v>
       </c>
       <c r="I13">
-        <v>7.422635101802156</v>
+        <v>3.243546476854568</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.930022336233267</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>10.2433681676317</v>
       </c>
       <c r="M13">
-        <v>40.81629290899907</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>10.8065975081253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.61137156786601</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.09800460077281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.01663857498344</v>
+        <v>17.29819279956063</v>
       </c>
       <c r="C14">
-        <v>15.5860785412466</v>
+        <v>10.95774617219588</v>
       </c>
       <c r="D14">
-        <v>5.57425261014049</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>7.259967247478126</v>
       </c>
       <c r="F14">
-        <v>16.03048481790003</v>
+        <v>13.0084710017524</v>
       </c>
       <c r="G14">
-        <v>19.06193733088557</v>
-      </c>
-      <c r="H14">
-        <v>6.460079754839458</v>
+        <v>12.93101074689037</v>
       </c>
       <c r="I14">
-        <v>7.468901515821597</v>
+        <v>3.220764231105908</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.951796673436666</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>10.29264346260366</v>
       </c>
       <c r="M14">
-        <v>40.34742313548686</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>10.76532293340344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.49837769059715</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.132816614725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.90482607628367</v>
+        <v>17.20780827669663</v>
       </c>
       <c r="C15">
-        <v>15.52049961412182</v>
+        <v>10.92549617039268</v>
       </c>
       <c r="D15">
-        <v>5.5493150044188</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>7.229857104094807</v>
       </c>
       <c r="F15">
-        <v>15.96194967417607</v>
+        <v>12.99464596832824</v>
       </c>
       <c r="G15">
-        <v>18.94784151733938</v>
-      </c>
-      <c r="H15">
-        <v>6.459867943334004</v>
+        <v>12.93646175702025</v>
       </c>
       <c r="I15">
-        <v>7.497675603116207</v>
+        <v>3.207986190073468</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.963776095814055</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>10.32059000051508</v>
       </c>
       <c r="M15">
-        <v>40.06051044322037</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>10.74043496730002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.43045981782231</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.15047125560606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.25204829249799</v>
+        <v>16.69370632957614</v>
       </c>
       <c r="C16">
-        <v>15.13800946946418</v>
+        <v>10.68825903843669</v>
       </c>
       <c r="D16">
-        <v>5.403927081097095</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>7.044326626281218</v>
       </c>
       <c r="F16">
-        <v>15.57196948176374</v>
+        <v>12.96165296975004</v>
       </c>
       <c r="G16">
-        <v>18.35919192012103</v>
-      </c>
-      <c r="H16">
-        <v>6.461475352991313</v>
+        <v>13.04424756297174</v>
       </c>
       <c r="I16">
-        <v>7.668842773776739</v>
+        <v>3.127056389931399</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.042407863108684</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>10.49658077472038</v>
       </c>
       <c r="M16">
-        <v>38.41840301271984</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>10.60374449521369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.02438036716595</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.27881602396754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.84093621724359</v>
+        <v>16.37006726012254</v>
       </c>
       <c r="C17">
-        <v>14.89751717395294</v>
+        <v>10.54074798434992</v>
       </c>
       <c r="D17">
-        <v>5.312543919167381</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>6.928101170965752</v>
       </c>
       <c r="F17">
-        <v>15.33521064409093</v>
+        <v>12.94575747595697</v>
       </c>
       <c r="G17">
-        <v>18.00490638161206</v>
-      </c>
-      <c r="H17">
-        <v>6.464895453631167</v>
+        <v>13.11792042939351</v>
       </c>
       <c r="I17">
-        <v>7.779058246789014</v>
+        <v>3.077154918415028</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.091499845349237</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+        <v>10.60560701941921</v>
       </c>
       <c r="M17">
-        <v>37.41064665959509</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>10.52507151496741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.76978850018767</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.35992348592037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.60058856424251</v>
+        <v>16.18647553821394</v>
       </c>
       <c r="C18">
-        <v>14.75708826436867</v>
+        <v>10.43412474016077</v>
       </c>
       <c r="D18">
-        <v>5.259185198144738</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>6.856032933255504</v>
       </c>
       <c r="F18">
-        <v>15.19995507284742</v>
+        <v>12.95492153976723</v>
       </c>
       <c r="G18">
-        <v>17.80247979224715</v>
-      </c>
-      <c r="H18">
-        <v>6.467724686144198</v>
+        <v>13.18984607702495</v>
       </c>
       <c r="I18">
-        <v>7.844223686137656</v>
+        <v>3.044707463297079</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.123640116332234</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+        <v>10.67454780217788</v>
       </c>
       <c r="M18">
-        <v>36.83007874136466</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>10.48168192095244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.61683795624444</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.4170905292224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.51854597485647</v>
+        <v>16.11948926109602</v>
       </c>
       <c r="C19">
-        <v>14.70918418034455</v>
+        <v>10.41411876369138</v>
       </c>
       <c r="D19">
-        <v>5.240982635444794</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6.834821054302475</v>
       </c>
       <c r="F19">
-        <v>15.15431955865886</v>
+        <v>12.94537588221253</v>
       </c>
       <c r="G19">
-        <v>17.73417445897167</v>
-      </c>
-      <c r="H19">
-        <v>6.468827663317398</v>
+        <v>13.19387580227671</v>
       </c>
       <c r="I19">
-        <v>7.866579544073216</v>
+        <v>3.036435333495323</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.13180078205055</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>10.69344679063303</v>
       </c>
       <c r="M19">
-        <v>36.63327996663184</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>10.46730650161778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.5681856338063</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.4291204137612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.88510269176696</v>
+        <v>16.40526697310269</v>
       </c>
       <c r="C20">
-        <v>14.92333673954969</v>
+        <v>10.55488478258288</v>
       </c>
       <c r="D20">
-        <v>5.322354536945509</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6.940227545761625</v>
       </c>
       <c r="F20">
-        <v>15.36031891921038</v>
+        <v>12.94859907163413</v>
       </c>
       <c r="G20">
-        <v>18.04248126976064</v>
-      </c>
-      <c r="H20">
-        <v>6.464441435553475</v>
+        <v>13.11191645544651</v>
       </c>
       <c r="I20">
-        <v>7.767139160737329</v>
+        <v>3.082185466679551</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.086524075420144</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>10.59441759739986</v>
       </c>
       <c r="M20">
-        <v>37.5180039940879</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>10.53325280798579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.79674642238508</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.35196233348991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.07004183206502</v>
+        <v>17.33451536840364</v>
       </c>
       <c r="C21">
-        <v>15.6174054679299</v>
+        <v>10.99946117945426</v>
       </c>
       <c r="D21">
-        <v>5.586166683484032</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>7.279735196220454</v>
       </c>
       <c r="F21">
-        <v>16.06339822664086</v>
+        <v>12.99356314068167</v>
       </c>
       <c r="G21">
-        <v>19.11667463284302</v>
-      </c>
-      <c r="H21">
-        <v>6.460232424566483</v>
+        <v>12.89305356166385</v>
       </c>
       <c r="I21">
-        <v>7.455220415453398</v>
+        <v>3.230902021361803</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.941346319735128</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>10.27159190751022</v>
       </c>
       <c r="M21">
-        <v>40.48507664913614</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>10.77736393110284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.53644195072964</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10.11159483872343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80920730031973</v>
+        <v>17.92229028683401</v>
       </c>
       <c r="C22">
-        <v>16.05129220744712</v>
+        <v>11.25492080247892</v>
       </c>
       <c r="D22">
-        <v>5.751302492047851</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>7.487856910869106</v>
       </c>
       <c r="F22">
-        <v>16.53100585998858</v>
+        <v>13.06106508230385</v>
       </c>
       <c r="G22">
-        <v>19.8907205874295</v>
-      </c>
-      <c r="H22">
-        <v>6.465860495519903</v>
+        <v>12.81488600214551</v>
       </c>
       <c r="I22">
-        <v>7.270415825012141</v>
+        <v>3.322774952063344</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.854453778407834</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>10.07236574090659</v>
       </c>
       <c r="M22">
-        <v>42.43470500792543</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>10.95441877771705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.99575651746665</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.97657044060602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.41796286302937</v>
+        <v>17.6180442140086</v>
       </c>
       <c r="C23">
-        <v>15.82157587435546</v>
+        <v>11.09230088164325</v>
       </c>
       <c r="D23">
-        <v>5.663841830616358</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>7.372012709138215</v>
       </c>
       <c r="F23">
-        <v>16.28068880894935</v>
+        <v>13.0459240043272</v>
       </c>
       <c r="G23">
-        <v>19.47717157779061</v>
-      </c>
-      <c r="H23">
-        <v>6.462054841683414</v>
+        <v>12.89076103914537</v>
       </c>
       <c r="I23">
-        <v>7.367126474206842</v>
+        <v>3.270076022907735</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.905446143370987</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+        <v>10.18634319444466</v>
       </c>
       <c r="M23">
-        <v>41.39211044119956</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>10.85827099793828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.7465421815902</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10.06111050181662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.86514746190858</v>
+        <v>16.40106625476482</v>
       </c>
       <c r="C24">
-        <v>14.91167045221164</v>
+        <v>10.50431756088323</v>
       </c>
       <c r="D24">
-        <v>5.317921712977998</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6.925653359527323</v>
       </c>
       <c r="F24">
-        <v>15.3489647861786</v>
+        <v>12.98270660460601</v>
       </c>
       <c r="G24">
-        <v>18.02548974732225</v>
-      </c>
-      <c r="H24">
-        <v>6.464644016800548</v>
+        <v>13.17175526757848</v>
       </c>
       <c r="I24">
-        <v>7.772522202978046</v>
+        <v>3.073179513633185</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.096399631464494</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>10.61192154423146</v>
       </c>
       <c r="M24">
-        <v>37.46947165270343</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>10.5295483227043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.77509703367264</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.376114360096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.04186152615001</v>
+        <v>14.97394903186936</v>
       </c>
       <c r="C25">
-        <v>13.85023908794495</v>
+        <v>9.838224209854591</v>
       </c>
       <c r="D25">
-        <v>4.914397542952082</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>6.409560158710957</v>
       </c>
       <c r="F25">
-        <v>14.37960401350628</v>
+        <v>12.97551279133177</v>
       </c>
       <c r="G25">
-        <v>16.57396088367936</v>
-      </c>
-      <c r="H25">
-        <v>6.500027791621767</v>
+        <v>13.57596337718807</v>
       </c>
       <c r="I25">
-        <v>8.276494386743986</v>
+        <v>2.854506843233114</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.314456582915589</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+        <v>11.08657769247008</v>
       </c>
       <c r="M25">
-        <v>33.19738175921387</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>10.24558169730957</v>
+        <v>13.64990132885986</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10.74839746756954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,917 +421,1067 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.84566768274095</v>
+        <v>13.87347085604381</v>
       </c>
       <c r="C2">
-        <v>9.247397978147688</v>
+        <v>9.094011985906873</v>
       </c>
       <c r="D2">
-        <v>5.984808631937423</v>
+        <v>5.987757846804634</v>
       </c>
       <c r="F2">
-        <v>13.07334004795375</v>
+        <v>13.01123251507097</v>
       </c>
       <c r="G2">
-        <v>14.03250896832723</v>
+        <v>13.05409138305596</v>
       </c>
       <c r="I2">
-        <v>2.679301548360183</v>
+        <v>2.730988079924806</v>
       </c>
       <c r="J2">
-        <v>7.496771203464621</v>
+        <v>7.991319337048355</v>
       </c>
       <c r="K2">
-        <v>11.46981153711508</v>
+        <v>11.33646934097647</v>
+      </c>
+      <c r="L2">
+        <v>10.10948046871102</v>
       </c>
       <c r="M2">
-        <v>12.74039960167812</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>11.07874071300493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.623361641526929</v>
+      </c>
+      <c r="O2">
+        <v>12.73918500486213</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.0273792830692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.00877682477472</v>
+        <v>13.05824141330578</v>
       </c>
       <c r="C3">
-        <v>8.873058940405452</v>
+        <v>8.651537520982997</v>
       </c>
       <c r="D3">
-        <v>5.687950254562256</v>
+        <v>5.678140212549882</v>
       </c>
       <c r="F3">
-        <v>13.13494327699637</v>
+        <v>13.0838697101807</v>
       </c>
       <c r="G3">
-        <v>14.33072718742142</v>
+        <v>13.39469599352118</v>
       </c>
       <c r="I3">
-        <v>2.560712057100509</v>
+        <v>2.625559291306635</v>
       </c>
       <c r="J3">
-        <v>7.619618285239257</v>
+        <v>8.080261206822772</v>
       </c>
       <c r="K3">
-        <v>11.7271844227223</v>
+        <v>11.57801526873842</v>
+      </c>
+      <c r="L3">
+        <v>10.29604482377017</v>
       </c>
       <c r="M3">
-        <v>12.09387934948227</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>11.29893952972712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.858812812249984</v>
+      </c>
+      <c r="O3">
+        <v>12.08513590766681</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.24481322340605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46462590563873</v>
+        <v>12.52847600914105</v>
       </c>
       <c r="C4">
-        <v>8.637606670481457</v>
+        <v>8.372610248184161</v>
       </c>
       <c r="D4">
-        <v>5.49756209124063</v>
+        <v>5.479513121944169</v>
       </c>
       <c r="F4">
-        <v>13.18430843685241</v>
+        <v>13.138222872123</v>
       </c>
       <c r="G4">
-        <v>14.52975191787779</v>
+        <v>13.61991603690387</v>
       </c>
       <c r="I4">
-        <v>2.485908682736638</v>
+        <v>2.559208195006085</v>
       </c>
       <c r="J4">
-        <v>7.697793434545622</v>
+        <v>8.136459856011204</v>
       </c>
       <c r="K4">
-        <v>11.88936044604022</v>
+        <v>11.72993909975723</v>
+      </c>
+      <c r="L4">
+        <v>10.41969035710441</v>
       </c>
       <c r="M4">
-        <v>11.67858276472721</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>11.44038448913595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>7.017529814634154</v>
+      </c>
+      <c r="O4">
+        <v>11.66512259654187</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.38354913654432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.23283347707743</v>
+        <v>12.30287770020129</v>
       </c>
       <c r="C5">
-        <v>8.548622483330034</v>
+        <v>8.265626146404925</v>
       </c>
       <c r="D5">
-        <v>5.419776835012965</v>
+        <v>5.398244379754856</v>
       </c>
       <c r="F5">
-        <v>13.20141144918904</v>
+        <v>13.15696531244863</v>
       </c>
       <c r="G5">
-        <v>14.60585467655923</v>
+        <v>13.70640638136802</v>
       </c>
       <c r="I5">
-        <v>2.493173145612554</v>
+        <v>2.532781259637509</v>
       </c>
       <c r="J5">
-        <v>7.729096171100504</v>
+        <v>8.158506367350908</v>
       </c>
       <c r="K5">
-        <v>11.95435686601838</v>
+        <v>11.79058343138967</v>
+      </c>
+      <c r="L5">
+        <v>10.46925877661271</v>
       </c>
       <c r="M5">
-        <v>11.50669996241648</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>11.49632507626412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.085776692532092</v>
+      </c>
+      <c r="O5">
+        <v>11.49127604562795</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.43814935490632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19085999588472</v>
+        <v>12.2620097429216</v>
       </c>
       <c r="C6">
-        <v>8.543941116400312</v>
+        <v>8.258042459367344</v>
       </c>
       <c r="D6">
-        <v>5.408935404018676</v>
+        <v>5.386782184198424</v>
       </c>
       <c r="F6">
-        <v>13.19732775123627</v>
+        <v>13.15318353126623</v>
       </c>
       <c r="G6">
-        <v>14.60800630133273</v>
+        <v>13.7099247853961</v>
       </c>
       <c r="I6">
-        <v>2.503346918866066</v>
+        <v>2.529882277415299</v>
       </c>
       <c r="J6">
-        <v>7.732819001915546</v>
+        <v>8.160658131334181</v>
       </c>
       <c r="K6">
-        <v>11.96260082724203</v>
+        <v>11.79804976091312</v>
+      </c>
+      <c r="L6">
+        <v>10.47389889125696</v>
       </c>
       <c r="M6">
-        <v>11.48015106958232</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>11.5017606703598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>7.097448116590818</v>
+      </c>
+      <c r="O6">
+        <v>11.46436507953086</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.44335578083229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45344122067524</v>
+        <v>12.51821804291037</v>
       </c>
       <c r="C7">
-        <v>8.663860278046251</v>
+        <v>8.394827444661479</v>
       </c>
       <c r="D7">
-        <v>5.502419209116621</v>
+        <v>5.487796589545169</v>
       </c>
       <c r="F7">
-        <v>13.16516705656957</v>
+        <v>13.10835224155641</v>
       </c>
       <c r="G7">
-        <v>14.50138658767657</v>
+        <v>13.64453870056693</v>
       </c>
       <c r="I7">
-        <v>2.488280426909756</v>
+        <v>2.562104024994493</v>
       </c>
       <c r="J7">
-        <v>7.694078470852086</v>
+        <v>8.113772618869849</v>
       </c>
       <c r="K7">
-        <v>11.88312170857958</v>
+        <v>11.72109883027702</v>
+      </c>
+      <c r="L7">
+        <v>10.40725011168837</v>
       </c>
       <c r="M7">
-        <v>11.6823653871875</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11.43034379732442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>7.018336467730955</v>
+      </c>
+      <c r="O7">
+        <v>11.66759994574154</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.36768390111695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.55349430934409</v>
+        <v>13.59089618904481</v>
       </c>
       <c r="C8">
-        <v>9.154395374965953</v>
+        <v>8.965390107753782</v>
       </c>
       <c r="D8">
-        <v>5.891558204666366</v>
+        <v>5.901305132435227</v>
       </c>
       <c r="F8">
-        <v>13.06653605863185</v>
+        <v>12.97277557128526</v>
       </c>
       <c r="G8">
-        <v>14.09244550199362</v>
+        <v>13.31277188635295</v>
       </c>
       <c r="I8">
-        <v>2.641932548375301</v>
+        <v>2.697882555065579</v>
       </c>
       <c r="J8">
-        <v>7.533114486807737</v>
+        <v>7.956358929079152</v>
       </c>
       <c r="K8">
-        <v>11.54844666192485</v>
+        <v>11.40220229529224</v>
+      </c>
+      <c r="L8">
+        <v>10.15222690043059</v>
       </c>
       <c r="M8">
-        <v>12.52900052457668</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>11.13899868104082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6.697121391615224</v>
+      </c>
+      <c r="O8">
+        <v>12.52146725964812</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.06771500621755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.48191005790779</v>
+        <v>15.471047931575</v>
       </c>
       <c r="C9">
-        <v>10.02266778128758</v>
+        <v>9.990689397140812</v>
       </c>
       <c r="D9">
-        <v>6.578817406815142</v>
+        <v>6.61991111537813</v>
       </c>
       <c r="F9">
-        <v>13.00460216889806</v>
+        <v>12.86301896164056</v>
       </c>
       <c r="G9">
-        <v>13.48226356154573</v>
+        <v>12.66217197066486</v>
       </c>
       <c r="I9">
-        <v>2.924199510777012</v>
+        <v>2.948133584714395</v>
       </c>
       <c r="J9">
-        <v>7.246789503033144</v>
+        <v>7.731396614206683</v>
       </c>
       <c r="K9">
-        <v>10.93679157469891</v>
+        <v>10.82567928801159</v>
+      </c>
+      <c r="L9">
+        <v>9.752031534608035</v>
       </c>
       <c r="M9">
-        <v>14.02960622512636</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>10.63862880311849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>6.187755401809214</v>
+      </c>
+      <c r="O9">
+        <v>14.03958704208439</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.56232814455197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.74717055137137</v>
+        <v>16.70869904544345</v>
       </c>
       <c r="C10">
-        <v>10.64073139660558</v>
+        <v>10.6944656636384</v>
       </c>
       <c r="D10">
-        <v>7.044259490348513</v>
+        <v>7.12305303692011</v>
       </c>
       <c r="F10">
-        <v>13.0157712001297</v>
+        <v>12.76700735663152</v>
       </c>
       <c r="G10">
-        <v>13.12088508992082</v>
+        <v>12.6361384104349</v>
       </c>
       <c r="I10">
-        <v>3.124265013409348</v>
+        <v>3.125021972447523</v>
       </c>
       <c r="J10">
-        <v>7.048138049585019</v>
+        <v>7.479151425410711</v>
       </c>
       <c r="K10">
-        <v>10.50269093228313</v>
+        <v>10.40315112725167</v>
+      </c>
+      <c r="L10">
+        <v>9.497037079230406</v>
       </c>
       <c r="M10">
-        <v>15.03940209711414</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>10.30017444445322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>5.87641453175351</v>
+      </c>
+      <c r="O10">
+        <v>15.05584190649051</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.17917547437987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28096625707421</v>
+        <v>17.23666595677289</v>
       </c>
       <c r="C11">
-        <v>10.95150467331955</v>
+        <v>11.00886885760119</v>
       </c>
       <c r="D11">
-        <v>7.254202724177682</v>
+        <v>7.378578715014093</v>
       </c>
       <c r="F11">
-        <v>13.00587289888238</v>
+        <v>12.59613191377691</v>
       </c>
       <c r="G11">
-        <v>12.93212161295073</v>
+        <v>13.27122871817772</v>
       </c>
       <c r="I11">
-        <v>3.21830076051164</v>
+        <v>3.207595414592673</v>
       </c>
       <c r="J11">
-        <v>6.954097471934789</v>
+        <v>7.249285366080291</v>
       </c>
       <c r="K11">
-        <v>10.29800490195542</v>
+        <v>10.18566263431967</v>
+      </c>
+      <c r="L11">
+        <v>9.380552991053742</v>
       </c>
       <c r="M11">
-        <v>15.48539587417376</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10.1362188295614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>5.715401565666914</v>
+      </c>
+      <c r="O11">
+        <v>15.4956515338239</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.933047118826162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.48381454729234</v>
+        <v>17.43802253855928</v>
       </c>
       <c r="C12">
-        <v>11.0478383572124</v>
+        <v>11.10233658745354</v>
       </c>
       <c r="D12">
-        <v>7.328183335896724</v>
+        <v>7.473191192667948</v>
       </c>
       <c r="F12">
-        <v>13.02099518926272</v>
+        <v>12.53519884141326</v>
       </c>
       <c r="G12">
-        <v>12.89169905117721</v>
+        <v>13.64346661236078</v>
       </c>
       <c r="I12">
-        <v>3.251179262154988</v>
+        <v>3.235045885617931</v>
       </c>
       <c r="J12">
-        <v>6.92252028428402</v>
+        <v>7.173307361793952</v>
       </c>
       <c r="K12">
-        <v>10.2269022466139</v>
+        <v>10.10654590804274</v>
+      </c>
+      <c r="L12">
+        <v>9.341397427713831</v>
       </c>
       <c r="M12">
-        <v>15.64685900192335</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10.0850948697463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>5.657925852017675</v>
+      </c>
+      <c r="O12">
+        <v>15.653857882607</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.841900231817016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.44137363776727</v>
+        <v>17.39584644469618</v>
       </c>
       <c r="C13">
-        <v>11.02314706749159</v>
+        <v>11.0784218757908</v>
       </c>
       <c r="D13">
-        <v>7.311494168718208</v>
+        <v>7.451920960656853</v>
       </c>
       <c r="F13">
-        <v>13.02092669263178</v>
+        <v>12.55202880563056</v>
       </c>
       <c r="G13">
-        <v>12.90563513131417</v>
+        <v>13.5644000097569</v>
       </c>
       <c r="I13">
-        <v>3.243546476854568</v>
+        <v>3.228395675142529</v>
       </c>
       <c r="J13">
-        <v>6.930022336233267</v>
+        <v>7.18908075462952</v>
       </c>
       <c r="K13">
-        <v>10.2433681676317</v>
+        <v>10.12454355472296</v>
+      </c>
+      <c r="L13">
+        <v>9.350121618750054</v>
       </c>
       <c r="M13">
-        <v>15.61137156786601</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10.09800460077281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>5.671534769978034</v>
+      </c>
+      <c r="O13">
+        <v>15.61912530323927</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.863613880908046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29819279956063</v>
+        <v>17.2537448515022</v>
       </c>
       <c r="C14">
-        <v>10.95774617219588</v>
+        <v>11.01494584624908</v>
       </c>
       <c r="D14">
-        <v>7.259967247478126</v>
+        <v>7.38597864562626</v>
       </c>
       <c r="F14">
-        <v>13.0084710017524</v>
+        <v>12.59271154890511</v>
       </c>
       <c r="G14">
-        <v>12.93101074689037</v>
+        <v>13.30219638630208</v>
       </c>
       <c r="I14">
-        <v>3.220764231105908</v>
+        <v>3.20953230095838</v>
       </c>
       <c r="J14">
-        <v>6.951796673436666</v>
+        <v>7.242836734793647</v>
       </c>
       <c r="K14">
-        <v>10.29264346260366</v>
+        <v>10.1795722170859</v>
+      </c>
+      <c r="L14">
+        <v>9.377470475421443</v>
       </c>
       <c r="M14">
-        <v>15.49837769059715</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10.132816614725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>5.711190300430202</v>
+      </c>
+      <c r="O14">
+        <v>15.50838937354375</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.92644582966031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20780827669663</v>
+        <v>17.1641677335312</v>
       </c>
       <c r="C15">
-        <v>10.92549617039268</v>
+        <v>10.9833978540995</v>
       </c>
       <c r="D15">
-        <v>7.229857104094807</v>
+        <v>7.347448512165326</v>
       </c>
       <c r="F15">
-        <v>12.99464596832824</v>
+        <v>12.60977223446821</v>
       </c>
       <c r="G15">
-        <v>12.93646175702025</v>
+        <v>13.14399901516282</v>
       </c>
       <c r="I15">
-        <v>3.207986190073468</v>
+        <v>3.199530493747396</v>
       </c>
       <c r="J15">
-        <v>6.963776095814055</v>
+        <v>7.276967315249205</v>
       </c>
       <c r="K15">
-        <v>10.32059000051508</v>
+        <v>10.2112426615431</v>
+      </c>
+      <c r="L15">
+        <v>9.39359412374635</v>
       </c>
       <c r="M15">
-        <v>15.43045981782231</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>10.15047125560606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>5.733044392792557</v>
+      </c>
+      <c r="O15">
+        <v>15.4417071875247</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.960492223763328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.69370632957614</v>
+        <v>16.6560624377689</v>
       </c>
       <c r="C16">
-        <v>10.68825903843669</v>
+        <v>10.74174257263545</v>
       </c>
       <c r="D16">
-        <v>7.044326626281218</v>
+        <v>7.120394365004507</v>
       </c>
       <c r="F16">
-        <v>12.96165296975004</v>
+        <v>12.72332355472773</v>
       </c>
       <c r="G16">
-        <v>13.04424756297174</v>
+        <v>12.51367183385032</v>
       </c>
       <c r="I16">
-        <v>3.127056389931399</v>
+        <v>3.131602796247145</v>
       </c>
       <c r="J16">
-        <v>7.042407863108684</v>
+        <v>7.485130581542217</v>
       </c>
       <c r="K16">
-        <v>10.49658077472038</v>
+        <v>10.40064989124382</v>
+      </c>
+      <c r="L16">
+        <v>9.49504643740028</v>
       </c>
       <c r="M16">
-        <v>15.02438036716595</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10.27881602396754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>5.86923212443579</v>
+      </c>
+      <c r="O16">
+        <v>15.04088556839143</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.16416596221797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.37006726012254</v>
+        <v>16.33751511334976</v>
       </c>
       <c r="C17">
-        <v>10.54074798434992</v>
+        <v>10.58414768057547</v>
       </c>
       <c r="D17">
-        <v>6.928101170965752</v>
+        <v>6.984559634245868</v>
       </c>
       <c r="F17">
-        <v>12.94575747595697</v>
+        <v>12.77257292951707</v>
       </c>
       <c r="G17">
-        <v>13.11792042939351</v>
+        <v>12.29316844250095</v>
       </c>
       <c r="I17">
-        <v>3.077154918415028</v>
+        <v>3.089239419842091</v>
       </c>
       <c r="J17">
-        <v>7.091499845349237</v>
+        <v>7.601712819350263</v>
       </c>
       <c r="K17">
-        <v>10.60560701941921</v>
+        <v>10.51365864193068</v>
+      </c>
+      <c r="L17">
+        <v>9.559480037935218</v>
       </c>
       <c r="M17">
-        <v>14.76978850018767</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>10.35992348592037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>5.951018636647799</v>
+      </c>
+      <c r="O17">
+        <v>14.78770558735831</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.27744629691425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18647553821394</v>
+        <v>16.15725739080448</v>
       </c>
       <c r="C18">
-        <v>10.43412474016077</v>
+        <v>10.46878659737657</v>
       </c>
       <c r="D18">
-        <v>6.856032933255504</v>
+        <v>6.903426377363966</v>
       </c>
       <c r="F18">
-        <v>12.95492153976723</v>
+        <v>12.80999551456569</v>
       </c>
       <c r="G18">
-        <v>13.18984607702495</v>
+        <v>12.2488492398315</v>
       </c>
       <c r="I18">
-        <v>3.044707463297079</v>
+        <v>3.059839081199484</v>
       </c>
       <c r="J18">
-        <v>7.123640116332234</v>
+        <v>7.662561043573013</v>
       </c>
       <c r="K18">
-        <v>10.67454780217788</v>
+        <v>10.58263261406195</v>
+      </c>
+      <c r="L18">
+        <v>9.600557172909326</v>
       </c>
       <c r="M18">
-        <v>14.61683795624444</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10.4170905292224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.00258187745088</v>
+      </c>
+      <c r="O18">
+        <v>14.63494463832677</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.3477450947907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11948926109602</v>
+        <v>16.09156735280922</v>
       </c>
       <c r="C19">
-        <v>10.41411876369138</v>
+        <v>10.4455101439864</v>
       </c>
       <c r="D19">
-        <v>6.834821054302475</v>
+        <v>6.879457400813907</v>
       </c>
       <c r="F19">
-        <v>12.94537588221253</v>
+        <v>12.80893329039434</v>
       </c>
       <c r="G19">
-        <v>13.19387580227671</v>
+        <v>12.22125882533337</v>
       </c>
       <c r="I19">
-        <v>3.036435333495323</v>
+        <v>3.053402540863054</v>
       </c>
       <c r="J19">
-        <v>7.13180078205055</v>
+        <v>7.678787467588853</v>
       </c>
       <c r="K19">
-        <v>10.69344679063303</v>
+        <v>10.60180055806592</v>
+      </c>
+      <c r="L19">
+        <v>9.611787196806972</v>
       </c>
       <c r="M19">
-        <v>14.5681856338063</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10.4291204137612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.016303746453695</v>
+      </c>
+      <c r="O19">
+        <v>14.58619006531045</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.36376769779029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.40526697310269</v>
+        <v>16.3721117226162</v>
       </c>
       <c r="C20">
-        <v>10.55488478258288</v>
+        <v>10.59962542027369</v>
       </c>
       <c r="D20">
-        <v>6.940227545761625</v>
+        <v>6.998556712970734</v>
       </c>
       <c r="F20">
-        <v>12.94859907163413</v>
+        <v>12.76935118730327</v>
       </c>
       <c r="G20">
-        <v>13.11191645544651</v>
+        <v>12.3130226341829</v>
       </c>
       <c r="I20">
-        <v>3.082185466679551</v>
+        <v>3.093397820384797</v>
       </c>
       <c r="J20">
-        <v>7.086524075420144</v>
+        <v>7.590421361129492</v>
       </c>
       <c r="K20">
-        <v>10.59441759739986</v>
+        <v>10.50214934112807</v>
+      </c>
+      <c r="L20">
+        <v>9.552826751643261</v>
       </c>
       <c r="M20">
-        <v>14.79674642238508</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10.35196233348991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>5.942738138114321</v>
+      </c>
+      <c r="O20">
+        <v>14.81458852617375</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.26653341603649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33451536840364</v>
+        <v>17.29189430611297</v>
       </c>
       <c r="C21">
-        <v>10.99946117945426</v>
+        <v>11.04446581464632</v>
       </c>
       <c r="D21">
-        <v>7.279735196220454</v>
+        <v>7.420292244758333</v>
       </c>
       <c r="F21">
-        <v>12.99356314068167</v>
+        <v>12.52399244717394</v>
       </c>
       <c r="G21">
-        <v>12.89305356166385</v>
+        <v>13.58479589522329</v>
       </c>
       <c r="I21">
-        <v>3.230902021361803</v>
+        <v>3.218636443642962</v>
       </c>
       <c r="J21">
-        <v>6.941346319735128</v>
+        <v>7.198225885462715</v>
       </c>
       <c r="K21">
-        <v>10.27159190751022</v>
+        <v>10.15162481252858</v>
+      </c>
+      <c r="L21">
+        <v>9.36378025290038</v>
       </c>
       <c r="M21">
-        <v>15.53644195072964</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10.11159483872343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.684790658461337</v>
+      </c>
+      <c r="O21">
+        <v>15.54264508725384</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9.876813185523408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.92229028683401</v>
+        <v>17.8747205939971</v>
       </c>
       <c r="C22">
-        <v>11.25492080247892</v>
+        <v>11.29596994554592</v>
       </c>
       <c r="D22">
-        <v>7.487856910869106</v>
+        <v>7.684211275253522</v>
       </c>
       <c r="F22">
-        <v>13.06106508230385</v>
+        <v>12.38067005610058</v>
       </c>
       <c r="G22">
-        <v>12.81488600214551</v>
+        <v>14.66669997035189</v>
       </c>
       <c r="I22">
-        <v>3.322774952063344</v>
+        <v>3.294344160500429</v>
       </c>
       <c r="J22">
-        <v>6.854453778407834</v>
+        <v>7.058662513622894</v>
       </c>
       <c r="K22">
-        <v>10.07236574090659</v>
+        <v>9.930472036357486</v>
+      </c>
+      <c r="L22">
+        <v>9.260614295548631</v>
       </c>
       <c r="M22">
-        <v>15.99575651746665</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9.97657044060602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.528055300202421</v>
+      </c>
+      <c r="O22">
+        <v>15.99394957222871</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>9.629651782072894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.6180442140086</v>
+        <v>17.57143494854027</v>
       </c>
       <c r="C23">
-        <v>11.09230088164325</v>
+        <v>11.14377278065343</v>
       </c>
       <c r="D23">
-        <v>7.372012709138215</v>
+        <v>7.531300026493756</v>
       </c>
       <c r="F23">
-        <v>13.0459240043272</v>
+        <v>12.50620546165951</v>
       </c>
       <c r="G23">
-        <v>12.89076103914537</v>
+        <v>13.94052584459393</v>
       </c>
       <c r="I23">
-        <v>3.270076022907735</v>
+        <v>3.249580520751798</v>
       </c>
       <c r="J23">
-        <v>6.905446143370987</v>
+        <v>7.131505497821704</v>
       </c>
       <c r="K23">
-        <v>10.18634319444466</v>
+        <v>10.05882931192405</v>
+      </c>
+      <c r="L23">
+        <v>9.318416487677091</v>
       </c>
       <c r="M23">
-        <v>15.7465421815902</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>10.06111050181662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.625271242347471</v>
+      </c>
+      <c r="O23">
+        <v>15.75122985265831</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>9.788770000049984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.40106625476482</v>
+        <v>16.36796342323154</v>
       </c>
       <c r="C24">
-        <v>10.50431756088323</v>
+        <v>10.54804717622517</v>
       </c>
       <c r="D24">
-        <v>6.925653359527323</v>
+        <v>6.983274789824008</v>
       </c>
       <c r="F24">
-        <v>12.98270660460601</v>
+        <v>12.80513912879918</v>
       </c>
       <c r="G24">
-        <v>13.17175526757848</v>
+        <v>12.3631891165018</v>
       </c>
       <c r="I24">
-        <v>3.073179513633185</v>
+        <v>3.082634429869517</v>
       </c>
       <c r="J24">
-        <v>7.096399631464494</v>
+        <v>7.601953313988884</v>
       </c>
       <c r="K24">
-        <v>10.61192154423146</v>
+        <v>10.51819467458203</v>
+      </c>
+      <c r="L24">
+        <v>9.562939118470211</v>
       </c>
       <c r="M24">
-        <v>14.77509703367264</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10.376114360096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>5.957076600179839</v>
+      </c>
+      <c r="O24">
+        <v>14.79310464621713</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.29093535496919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97394903186936</v>
+        <v>14.97468676336927</v>
       </c>
       <c r="C25">
-        <v>9.838224209854591</v>
+        <v>9.771162388546523</v>
       </c>
       <c r="D25">
-        <v>6.409560158710957</v>
+        <v>6.43793335400173</v>
       </c>
       <c r="F25">
-        <v>12.97551279133177</v>
+        <v>12.86485454712222</v>
       </c>
       <c r="G25">
-        <v>13.57596337718807</v>
+        <v>12.68109470417314</v>
       </c>
       <c r="I25">
-        <v>2.854506843233114</v>
+        <v>2.889065918246885</v>
       </c>
       <c r="J25">
-        <v>7.314456582915589</v>
+        <v>7.809073602079536</v>
       </c>
       <c r="K25">
-        <v>11.08657769247008</v>
+        <v>10.97059694136487</v>
+      </c>
+      <c r="L25">
+        <v>9.844882608076263</v>
       </c>
       <c r="M25">
-        <v>13.64990132885986</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10.74839746756954</v>
+        <v>6.306995513479889</v>
+      </c>
+      <c r="O25">
+        <v>13.65659838408403</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.68366623056118</v>
       </c>
     </row>
   </sheetData>
